--- a/excels/Core/Trad DMG.xlsx
+++ b/excels/Core/Trad DMG.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298E8A5C-185B-45EF-BC09-8266DC1E46BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167" tabRatio="854" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -12,9 +18,10 @@
     <sheet name="disease" sheetId="6" r:id="rId3"/>
     <sheet name="baseitem" sheetId="5" r:id="rId4"/>
     <sheet name="item" sheetId="3" r:id="rId5"/>
-    <sheet name="class" sheetId="4" r:id="rId6"/>
-    <sheet name="variantrule" sheetId="8" r:id="rId7"/>
-    <sheet name="Temporal" sheetId="2" r:id="rId8"/>
+    <sheet name="magicvariant" sheetId="9" r:id="rId6"/>
+    <sheet name="class" sheetId="4" r:id="rId7"/>
+    <sheet name="variantrule" sheetId="8" r:id="rId8"/>
+    <sheet name="Temporal" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">baseitem!$B$1:$C$1</definedName>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="887">
   <si>
     <t>quickref</t>
   </si>
@@ -45,9 +52,6 @@
     <t>Boots of Striding and Springing</t>
   </si>
   <si>
-    <t xml:space="preserve">Botas de zancadas y brincos </t>
-  </si>
-  <si>
     <t>Gauntlets of Ogre Power</t>
   </si>
   <si>
@@ -1801,13 +1805,901 @@
   </si>
   <si>
     <t>Healing</t>
+  </si>
+  <si>
+    <t>Botas de zancadas y brincos</t>
+  </si>
+  <si>
+    <t>Vara del pacto +1</t>
+  </si>
+  <si>
+    <t>Vara del pacto +2</t>
+  </si>
+  <si>
+    <t>Vara del pacto +3</t>
+  </si>
+  <si>
+    <t>Varita del mago de guerra +1</t>
+  </si>
+  <si>
+    <t>Varita del mago de guerra +2</t>
+  </si>
+  <si>
+    <t>Varita del mago de guerra +3</t>
+  </si>
+  <si>
+    <t>Aeronave</t>
+  </si>
+  <si>
+    <t>Vasija alquímica</t>
+  </si>
+  <si>
+    <t>Alejandrita</t>
+  </si>
+  <si>
+    <t>Ámbar</t>
+  </si>
+  <si>
+    <t>Amatista</t>
+  </si>
+  <si>
+    <t>Aguamarina</t>
+  </si>
+  <si>
+    <t>Perla negra</t>
+  </si>
+  <si>
+    <t>Espinela azul</t>
+  </si>
+  <si>
+    <t>Peridoto</t>
+  </si>
+  <si>
+    <t>Topacio</t>
+  </si>
+  <si>
+    <t>Azurita</t>
+  </si>
+  <si>
+    <t>Ágata con franjas</t>
+  </si>
+  <si>
+    <t>Cuarzo azul</t>
+  </si>
+  <si>
+    <t>Ojo de ágata</t>
+  </si>
+  <si>
+    <t>Hematita</t>
+  </si>
+  <si>
+    <t>Lapislázuli</t>
+  </si>
+  <si>
+    <t>Malaquita</t>
+  </si>
+  <si>
+    <t>Ágata musgosa</t>
+  </si>
+  <si>
+    <t>Obsidiana</t>
+  </si>
+  <si>
+    <t>Rodocrosita</t>
+  </si>
+  <si>
+    <t>Ojo de tigre</t>
+  </si>
+  <si>
+    <t>Turquesa</t>
+  </si>
+  <si>
+    <t>Galera</t>
+  </si>
+  <si>
+    <t>Barcaza</t>
+  </si>
+  <si>
+    <t>Bote de remos</t>
+  </si>
+  <si>
+    <t>Drakkar</t>
+  </si>
+  <si>
+    <t>Velero</t>
+  </si>
+  <si>
+    <t>Navío de guerra</t>
+  </si>
+  <si>
+    <t>Jaspe sanguíneo</t>
+  </si>
+  <si>
+    <t>Cornalina</t>
+  </si>
+  <si>
+    <t>Calcedonia</t>
+  </si>
+  <si>
+    <t>Crisoprasa</t>
+  </si>
+  <si>
+    <t>Citrino</t>
+  </si>
+  <si>
+    <t>Jaspe</t>
+  </si>
+  <si>
+    <t>Piedra de luna</t>
+  </si>
+  <si>
+    <t>Ónice</t>
+  </si>
+  <si>
+    <t>Cuarzo</t>
+  </si>
+  <si>
+    <t>Sardónice</t>
+  </si>
+  <si>
+    <t>Cuarzo rosa estrellado</t>
+  </si>
+  <si>
+    <t>Zirconita</t>
+  </si>
+  <si>
+    <t>Crisoberilo</t>
+  </si>
+  <si>
+    <t>Granate</t>
+  </si>
+  <si>
+    <t>Azabache</t>
+  </si>
+  <si>
+    <t>Perla</t>
+  </si>
+  <si>
+    <t>Espinela</t>
+  </si>
+  <si>
+    <t>Turmalina</t>
+  </si>
+  <si>
+    <t>Ópalo negro</t>
+  </si>
+  <si>
+    <t>Zafiro azul</t>
+  </si>
+  <si>
+    <t>Esmeralda</t>
+  </si>
+  <si>
+    <t>Ópalo de fuego</t>
+  </si>
+  <si>
+    <t>Ópalo</t>
+  </si>
+  <si>
+    <t>Rubí estrella</t>
+  </si>
+  <si>
+    <t>Zafiro estrella</t>
+  </si>
+  <si>
+    <t>Zafiro amarillo</t>
+  </si>
+  <si>
+    <t>Zafiro negro</t>
+  </si>
+  <si>
+    <t>Diamante</t>
+  </si>
+  <si>
+    <t>Jacinto</t>
+  </si>
+  <si>
+    <t>Rubí</t>
+  </si>
+  <si>
+    <t>Aguamanil de plata</t>
+  </si>
+  <si>
+    <t>Estatuilla tallada en hueso</t>
+  </si>
+  <si>
+    <t>Brazalete de oro pequeño</t>
+  </si>
+  <si>
+    <t>Vestiduras de tela de oro</t>
+  </si>
+  <si>
+    <t>Máscara de terciopelo negro bordada en plata</t>
+  </si>
+  <si>
+    <t>Cáliz de cobre con filigrana de plata</t>
+  </si>
+  <si>
+    <t>Pareja de dados de hueso grabados</t>
+  </si>
+  <si>
+    <t>Conjunto de espejos con marco de madera pintada</t>
+  </si>
+  <si>
+    <t>Pañuelo de seda bordado</t>
+  </si>
+  <si>
+    <t>Relicario con retrato pintado a mano dentro</t>
+  </si>
+  <si>
+    <t>Anillo de oro con jaspe sanguíneo</t>
+  </si>
+  <si>
+    <t>Estatuilla tallada en marfil</t>
+  </si>
+  <si>
+    <t>Brazalete de oro grande</t>
+  </si>
+  <si>
+    <t>Collar de plata con colgante de piedra preciosa</t>
+  </si>
+  <si>
+    <t>Corona de bronce</t>
+  </si>
+  <si>
+    <t>Bata de seda bordada en oro</t>
+  </si>
+  <si>
+    <t>Tapiz grande y de calidad</t>
+  </si>
+  <si>
+    <t>Jarra de latón con incrustación de jade</t>
+  </si>
+  <si>
+    <t>Caja de figuritas de animales de turquesa</t>
+  </si>
+  <si>
+    <t>Jaula de pájaro de oro, con filigrana de electro</t>
+  </si>
+  <si>
+    <t>Cáliz de plata con piedras de luna incrustadas</t>
+  </si>
+  <si>
+    <t>Espada de acero revestida en plata con un azabache incrustado en la empuñadura</t>
+  </si>
+  <si>
+    <t>Arpa tallada en madera exótica con incrustaciones de marfil y zirconitas</t>
+  </si>
+  <si>
+    <t>ídolo de oro pequeño</t>
+  </si>
+  <si>
+    <t>Peine dorado con forma de dragón, cuyos ojos son granates rojos</t>
+  </si>
+  <si>
+    <t>Tapón de vino repujado con pan de oro e incrustado con amatistas</t>
+  </si>
+  <si>
+    <t>Daga ceremonial de electro con perla negra en el pomo</t>
+  </si>
+  <si>
+    <t>Broche de oro y plata</t>
+  </si>
+  <si>
+    <t>Estatuilla de obsidiana con incrustaciones y relieves en oro</t>
+  </si>
+  <si>
+    <t>Máscara de guerra de oro, pintada</t>
+  </si>
+  <si>
+    <t>Cadena de oro fino con colgante de ópalo de fuego</t>
+  </si>
+  <si>
+    <t>Antigua obra maestra de la pintura</t>
+  </si>
+  <si>
+    <t>Manto de terciopelo, con encaje de seda y numerosas piedras de luna engastadas</t>
+  </si>
+  <si>
+    <t>Brazalete de platino con zafiro engastado</t>
+  </si>
+  <si>
+    <t>Guante bordado con trozos de gema incrustados</t>
+  </si>
+  <si>
+    <t>Ajorca de tobillo enjoyada</t>
+  </si>
+  <si>
+    <t>Caja de música de oro</t>
+  </si>
+  <si>
+    <t>Diadema de oro con cuatro aguamarinas engastadas</t>
+  </si>
+  <si>
+    <t>Parche de ojo con un ojo falso representado mediante zafiro azul y piedras de luna</t>
+  </si>
+  <si>
+    <t>Collar de perlas rosas pequeñas</t>
+  </si>
+  <si>
+    <t>Corona de oro con piedras preciosas incrustadas</t>
+  </si>
+  <si>
+    <t>Anillo de platino con gemas</t>
+  </si>
+  <si>
+    <t>Estatuilla de oro con rubíes engarzados</t>
+  </si>
+  <si>
+    <t>Copa de oro con esmeraldas</t>
+  </si>
+  <si>
+    <t>Joyero de oro con filigrana de platino</t>
+  </si>
+  <si>
+    <t>Sarcófago de niño pintado en oro</t>
+  </si>
+  <si>
+    <t>Tablero de juego de mesa de jade, con piezas de oro macizo</t>
+  </si>
+  <si>
+    <t>Cuerno para beber de marfil, con filigrana de oro y cuajado de piedras preciosas</t>
+  </si>
+  <si>
+    <t>Poción de trepar</t>
+  </si>
+  <si>
+    <t>Bolsa de contención</t>
+  </si>
+  <si>
+    <t>Morral práctico de Heward</t>
+  </si>
+  <si>
+    <t>Agujero portátil</t>
+  </si>
+  <si>
+    <t>Globo flotante</t>
+  </si>
+  <si>
+    <t>Poción de aliento de fuego</t>
+  </si>
+  <si>
+    <t>Poción de resistencia</t>
+  </si>
+  <si>
+    <t>Poción de resistencia a necrótico</t>
+  </si>
+  <si>
+    <t>Poción de resistencia a ácido</t>
+  </si>
+  <si>
+    <t>Poción de resistencia a frío</t>
+  </si>
+  <si>
+    <t>Poción de resistencia a fuego</t>
+  </si>
+  <si>
+    <t>Poción de resistencia a fuerza</t>
+  </si>
+  <si>
+    <t>Poción de resistencia a relámpago</t>
+  </si>
+  <si>
+    <t>Poción de resistencia a veneno</t>
+  </si>
+  <si>
+    <t>Poción de resistencia a psíquico</t>
+  </si>
+  <si>
+    <t>Poción de resistencia a radiante</t>
+  </si>
+  <si>
+    <t>Poción de resistencia a trueno</t>
+  </si>
+  <si>
+    <t>Poción de amistad animal</t>
+  </si>
+  <si>
+    <t>Poción de fuerza de gigante de las colinas</t>
+  </si>
+  <si>
+    <t>Poción de fuerza de gigante</t>
+  </si>
+  <si>
+    <t>Poción de fuerza de gigante de las nubes</t>
+  </si>
+  <si>
+    <t>Poción de fuerza de gigante de fuego</t>
+  </si>
+  <si>
+    <t>Poción de fuerza de gigante de escarcha</t>
+  </si>
+  <si>
+    <t>Poción de fuerza de gigante de piedra</t>
+  </si>
+  <si>
+    <t>Poción de fuerza de gigante de las tormentas</t>
+  </si>
+  <si>
+    <t>Poción de crecimiento</t>
+  </si>
+  <si>
+    <t>Poción de respirar bajo el agua</t>
+  </si>
+  <si>
+    <t>Ungüento de Keoghtom</t>
+  </si>
+  <si>
+    <t>Aceite escurridizo</t>
+  </si>
+  <si>
+    <t>Polvo de desaparición</t>
+  </si>
+  <si>
+    <t>Polvo de sequedad</t>
+  </si>
+  <si>
+    <t>Polvo de estornudar y atragantarse</t>
+  </si>
+  <si>
+    <t>Gema elemental</t>
+  </si>
+  <si>
+    <t>Gema elemental, Corindón rojo</t>
+  </si>
+  <si>
+    <t>Gema elemental, Diamante amarillo</t>
+  </si>
+  <si>
+    <t>Gema elemental, Esmeralda</t>
+  </si>
+  <si>
+    <t>Gema elemental, Zafiro azul</t>
+  </si>
+  <si>
+    <t>Filtro de amor</t>
+  </si>
+  <si>
+    <t>Gorro de respirar bajo el agua</t>
+  </si>
+  <si>
+    <t>Capa de la mantarraya</t>
+  </si>
+  <si>
+    <t>Anteojos de la noche</t>
+  </si>
+  <si>
+    <t>Yelmo de entender idiomas</t>
+  </si>
+  <si>
+    <t>Vara inamovible</t>
+  </si>
+  <si>
+    <t>Linterna de revelación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +1 Ammunition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +1 Armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +1 Shield (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +1 Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +1 Weapon (no damage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +2 Ammunition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +2 Armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +2 Shield (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +2 Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +2 Weapon (no damage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +3 Ammunition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +3 Armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +3 Shield (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +3 Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +3 Weapon (no damage)</t>
+  </si>
+  <si>
+    <t>Adamantine Armor</t>
+  </si>
+  <si>
+    <t>Armor of Acid Resistance</t>
+  </si>
+  <si>
+    <t>Armor of Cold Resistance</t>
+  </si>
+  <si>
+    <t>Armor of Fire Resistance</t>
+  </si>
+  <si>
+    <t>Armor of Force Resistance</t>
+  </si>
+  <si>
+    <t>Armor of Lightning Resistance</t>
+  </si>
+  <si>
+    <t>Armor of Necrotic Resistance</t>
+  </si>
+  <si>
+    <t>Armor of Poison Resistance</t>
+  </si>
+  <si>
+    <t>Armor of Psychic Resistance</t>
+  </si>
+  <si>
+    <t>Armor of Radiant Resistance</t>
+  </si>
+  <si>
+    <t>Armor of Thunder Resistance</t>
+  </si>
+  <si>
+    <t>Arrow of Slaying (*)</t>
+  </si>
+  <si>
+    <t>Berserker Axe</t>
+  </si>
+  <si>
+    <t>Dancing Sword</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>Dragon Slayer</t>
+  </si>
+  <si>
+    <t>Flame Tongue</t>
+  </si>
+  <si>
+    <t>Frost Brand</t>
+  </si>
+  <si>
+    <t>Giant Slayer</t>
+  </si>
+  <si>
+    <t>Holy Avenger</t>
+  </si>
+  <si>
+    <t>Luck Blade</t>
+  </si>
+  <si>
+    <t>Mariner's Armor</t>
+  </si>
+  <si>
+    <t>Mithral Armor</t>
+  </si>
+  <si>
+    <t>Nine Lives Stealer</t>
+  </si>
+  <si>
+    <t>Sword of Life Stealing</t>
+  </si>
+  <si>
+    <t>Sword of Sharpness</t>
+  </si>
+  <si>
+    <t>Sword of Vengeance</t>
+  </si>
+  <si>
+    <t>Sword of Wounding</t>
+  </si>
+  <si>
+    <t>Vicious Weapon</t>
+  </si>
+  <si>
+    <t>Vorpal Sword</t>
+  </si>
+  <si>
+    <t>Weapon of Warning</t>
+  </si>
+  <si>
+    <t>Munición +1</t>
+  </si>
+  <si>
+    <t>Munición +2</t>
+  </si>
+  <si>
+    <t>Munición +3</t>
+  </si>
+  <si>
+    <t>Armadura de marinero</t>
+  </si>
+  <si>
+    <t>Armadura de mithral</t>
+  </si>
+  <si>
+    <t>Poción de veneno</t>
+  </si>
+  <si>
+    <t>Anillo de natación</t>
+  </si>
+  <si>
+    <t>Túnica de objetos útiles</t>
+  </si>
+  <si>
+    <t>Cuerda de escalada</t>
+  </si>
+  <si>
+    <t>Silla de monta del caballero</t>
+  </si>
+  <si>
+    <t>Varita de detección mágica</t>
+  </si>
+  <si>
+    <t>Varita de secretos</t>
+  </si>
+  <si>
+    <t>Poción de clarividencia</t>
+  </si>
+  <si>
+    <t>Poción de encoger</t>
+  </si>
+  <si>
+    <t>Poción de forma gaseosa</t>
+  </si>
+  <si>
+    <t>Poción de heroísmo</t>
+  </si>
+  <si>
+    <t>Poción de invulnerabilidad</t>
+  </si>
+  <si>
+    <t>Poción de leer mentes</t>
+  </si>
+  <si>
+    <t>Elixir de salud</t>
+  </si>
+  <si>
+    <t>Aceite de etereidad</t>
+  </si>
+  <si>
+    <t>Ficha pluma de Quall</t>
+  </si>
+  <si>
+    <t>Ficha pluma de Quall, Ancla</t>
+  </si>
+  <si>
+    <t>Ficha pluma de Quall, Pájaro</t>
+  </si>
+  <si>
+    <t>Ficha pluma de Quall, Abanico</t>
+  </si>
+  <si>
+    <t>Ficha pluma de Quall, Barco cisne</t>
+  </si>
+  <si>
+    <t>Ficha pluma de Quall, Árbol</t>
+  </si>
+  <si>
+    <t>Ficha pluma de Quall, Látigo</t>
+  </si>
+  <si>
+    <t>Pergamino de protección</t>
+  </si>
+  <si>
+    <t>Pergamino de protección contra Aberraciones</t>
+  </si>
+  <si>
+    <t>Pergamino de protección contra Bestias</t>
+  </si>
+  <si>
+    <t>Pergamino de protección contra Celestiales</t>
+  </si>
+  <si>
+    <t>Pergamino de protección contra Elementales</t>
+  </si>
+  <si>
+    <t>Pergamino de protección contra Feéricos</t>
+  </si>
+  <si>
+    <t>Pergamino de protección contra Infernales</t>
+  </si>
+  <si>
+    <t>Pergamino de protección contra Plantas</t>
+  </si>
+  <si>
+    <t>Pergamino de protección contra Muertos vivientes</t>
+  </si>
+  <si>
+    <t>Bolsa de judías</t>
+  </si>
+  <si>
+    <t>Canica de fuerza</t>
+  </si>
+  <si>
+    <t>Carillón de apertura</t>
+  </si>
+  <si>
+    <t>Decantador de agua interminable</t>
+  </si>
+  <si>
+    <t>Anteojos de visión minuciosa</t>
+  </si>
+  <si>
+    <t>Bote plegable</t>
+  </si>
+  <si>
+    <t>Herraduras de velocidad</t>
+  </si>
+  <si>
+    <t>Collar de bolas de fuego</t>
+  </si>
+  <si>
+    <t>Talismán de salud</t>
+  </si>
+  <si>
+    <t>Piedras mensajeras</t>
+  </si>
+  <si>
+    <t>Poción de velocidad</t>
+  </si>
+  <si>
+    <t>Aceite de afilado</t>
+  </si>
+  <si>
+    <t>Poción de longevidad</t>
+  </si>
+  <si>
+    <t>Herraduras del céfiro</t>
+  </si>
+  <si>
+    <t>Maravillosos pigmentos de Nolzur</t>
+  </si>
+  <si>
+    <t>Bolsa devoradora</t>
+  </si>
+  <si>
+    <t>Disolvente universal</t>
+  </si>
+  <si>
+    <t>Flecha asesina (*)</t>
+  </si>
+  <si>
+    <t>Pegamento soberano</t>
+  </si>
+  <si>
+    <t>Arma +1</t>
+  </si>
+  <si>
+    <t>Arma +2</t>
+  </si>
+  <si>
+    <t>Arma +3</t>
+  </si>
+  <si>
+    <t>Arma +1 (sin daño)</t>
+  </si>
+  <si>
+    <t>Arma +2 (sin daño)</t>
+  </si>
+  <si>
+    <t>Arma +3 (sin daño)</t>
+  </si>
+  <si>
+    <t>Escudo +1 (*)</t>
+  </si>
+  <si>
+    <t>Escudo +2 (*)</t>
+  </si>
+  <si>
+    <t>Escudo +3 (*)</t>
+  </si>
+  <si>
+    <t>Armadura +1</t>
+  </si>
+  <si>
+    <t>Armadura +2</t>
+  </si>
+  <si>
+    <t>Armadura +3</t>
+  </si>
+  <si>
+    <t>Escudo centinela</t>
+  </si>
+  <si>
+    <t>Amuleto a prueba de detección y localización</t>
+  </si>
+  <si>
+    <t>Botas élficas</t>
+  </si>
+  <si>
+    <t>Brazales de arquería</t>
+  </si>
+  <si>
+    <t>Broche escudo</t>
+  </si>
+  <si>
+    <t>Escoba voladora</t>
+  </si>
+  <si>
+    <t>Capa élfica</t>
+  </si>
+  <si>
+    <t>Capa de protección</t>
+  </si>
+  <si>
+    <t>Sombrero de disfraz</t>
+  </si>
+  <si>
+    <t>Jabalina del relámpago</t>
+  </si>
+  <si>
+    <t>Perla de poder</t>
+  </si>
+  <si>
+    <t>Babuchas de trepar cual arácnido</t>
+  </si>
+  <si>
+    <t>Bastón de la víbora</t>
+  </si>
+  <si>
+    <t>Bastón de la pitón</t>
+  </si>
+  <si>
+    <t>Espada de la venganza</t>
+  </si>
+  <si>
+    <t>Tridente de comandar peces</t>
+  </si>
+  <si>
+    <t>Varita de telaraña</t>
+  </si>
+  <si>
+    <t>Arma de advertencia</t>
+  </si>
+  <si>
+    <t>Armadura adamantina</t>
+  </si>
+  <si>
+    <t>Bolsa de trucos</t>
+  </si>
+  <si>
+    <t>Bolsa de trucos, gris</t>
+  </si>
+  <si>
+    <t>Bolsa de trucos, rojiza</t>
+  </si>
+  <si>
+    <t>Bolsa de trucos, marrón</t>
+  </si>
+  <si>
+    <t>Botas de las tierras invernales</t>
+  </si>
+  <si>
+    <t>Diadema de estallidos</t>
+  </si>
+  <si>
+    <t>Baraja de ilusiones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1825,6 +2717,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1852,7 +2752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1874,6 +2774,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1884,12 +2788,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1931,7 +2838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1964,9 +2871,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1999,6 +2923,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2174,24 +3115,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="50.875" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -2209,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
@@ -2244,20 +3185,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2267,66 +3208,66 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C4" t="s">
         <v>575</v>
-      </c>
-      <c r="C3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>577</v>
-      </c>
-      <c r="C4" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C6" t="s">
         <v>579</v>
       </c>
-      <c r="C5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C7" t="s">
         <v>581</v>
       </c>
-      <c r="C6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" t="s">
         <v>583</v>
       </c>
-      <c r="C7" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C9" t="s">
         <v>585</v>
-      </c>
-      <c r="C8" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>587</v>
-      </c>
-      <c r="C9" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -2335,20 +3276,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2356,28 +3297,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C3" t="s">
         <v>567</v>
       </c>
-      <c r="C2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C4" t="s">
         <v>569</v>
-      </c>
-      <c r="C3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>571</v>
-      </c>
-      <c r="C4" t="s">
-        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -2386,20 +3327,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2407,149 +3348,149 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>554</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>555</v>
-      </c>
-      <c r="C6" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>557</v>
       </c>
-      <c r="C8" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>563</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>558</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>559</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>560</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>561</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>562</v>
-      </c>
-      <c r="C14" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>563</v>
+      </c>
+      <c r="C15" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>564</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>565</v>
-      </c>
-      <c r="C16" t="s">
-        <v>542</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:C1"/>
+  <autoFilter ref="B1:C1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:D512"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A148" sqref="A148:XFD148"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="3" max="3" width="57.875" customWidth="1"/>
-    <col min="4" max="4" width="51.25" customWidth="1"/>
-    <col min="5" max="5" width="49.25" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2558,2601 +3499,3292 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>592</v>
+      </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="4" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="5" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="6" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="7" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>597</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="8" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>599</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="10" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>600</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="12" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>602</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="13" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>862</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="16" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="17" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="18" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>603</v>
+      </c>
+      <c r="C18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="20" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="23" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>608</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>830</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>845</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>705</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>880</v>
+      </c>
+      <c r="C32" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="33" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>881</v>
+      </c>
+      <c r="C33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+    <row r="34" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>882</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>883</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>609</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>831</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+    <row r="44" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="45" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+    <row r="46" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="47" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>644</v>
+      </c>
+      <c r="C48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="49" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>604</v>
+      </c>
+      <c r="C49" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="50" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>652</v>
+      </c>
+      <c r="C50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>660</v>
+      </c>
+      <c r="C51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="52" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>626</v>
+      </c>
+      <c r="C53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="54" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="55" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>610</v>
+      </c>
+      <c r="C55" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="56" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>645</v>
+      </c>
+      <c r="C56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="57" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>605</v>
+      </c>
+      <c r="C57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="58" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="59" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="60" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="61" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>863</v>
+      </c>
+      <c r="C61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="62" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
+    <row r="63" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>6</v>
+        <v>591</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>884</v>
+      </c>
       <c r="C65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C66" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="67" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
+    <row r="68" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>674</v>
+      </c>
+      <c r="C68" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+    <row r="69" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>864</v>
+      </c>
+      <c r="C69" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
+    <row r="70" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+    <row r="71" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>673</v>
+      </c>
+      <c r="C72" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="73" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+    <row r="74" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>670</v>
+      </c>
+      <c r="C74" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
+    <row r="75" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
+    <row r="76" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>865</v>
+      </c>
+      <c r="C76" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+    <row r="77" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>866</v>
+      </c>
+      <c r="C77" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
+    <row r="78" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
+    <row r="79" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+    <row r="80" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>742</v>
+      </c>
+      <c r="C80" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
+    <row r="81" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
+    <row r="82" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>627</v>
+      </c>
+      <c r="C82" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
+    <row r="83" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>657</v>
+      </c>
+      <c r="C89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="C90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>667</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B93" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="C93" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>628</v>
+      </c>
+      <c r="C94" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>832</v>
+      </c>
+      <c r="C95" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>638</v>
+      </c>
+      <c r="C96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>629</v>
+      </c>
+      <c r="C97" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>885</v>
+      </c>
+      <c r="C98" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>630</v>
+      </c>
+      <c r="C99" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="10"/>
+      <c r="C100" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>867</v>
+      </c>
+      <c r="C102" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>868</v>
+      </c>
+      <c r="C104" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>743</v>
+      </c>
+      <c r="C106" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>659</v>
+      </c>
+      <c r="C107" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>661</v>
+      </c>
+      <c r="C108" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
+    <row r="113" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
+    <row r="114" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>833</v>
+      </c>
+      <c r="C120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>886</v>
+      </c>
+      <c r="C121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>653</v>
+      </c>
+      <c r="C124" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
+    <row r="127" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>708</v>
+      </c>
+      <c r="C127" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
+    <row r="128" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>733</v>
+      </c>
+      <c r="C129" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>734</v>
+      </c>
+      <c r="C130" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>735</v>
+      </c>
+      <c r="C131" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>736</v>
+      </c>
+      <c r="C137" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" t="s">
+    <row r="138" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>740</v>
+      </c>
+      <c r="C138" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
+    <row r="139" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>739</v>
+      </c>
+      <c r="C139" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>737</v>
+      </c>
+      <c r="C140" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>738</v>
+      </c>
+      <c r="C141" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>812</v>
+      </c>
+      <c r="C142" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>690</v>
+      </c>
+      <c r="C144" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B145" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C145" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>664</v>
+      </c>
+      <c r="C146" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>646</v>
+      </c>
+      <c r="C147" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>611</v>
+      </c>
+      <c r="C150" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B152" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C152" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>834</v>
+      </c>
+      <c r="C154" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
+    <row r="157" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" t="s">
+    <row r="158" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>686</v>
+      </c>
+      <c r="C166" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>647</v>
+      </c>
+      <c r="C167" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>835</v>
+      </c>
+      <c r="C168" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>620</v>
+      </c>
+      <c r="C170" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>639</v>
+      </c>
+      <c r="C171" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>744</v>
+      </c>
+      <c r="C179" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>675</v>
+      </c>
+      <c r="C180" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>693</v>
+      </c>
+      <c r="C181" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>699</v>
+      </c>
+      <c r="C182" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B183" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C183" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>700</v>
+      </c>
+      <c r="C185" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>665</v>
+      </c>
+      <c r="C186" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>692</v>
+      </c>
+      <c r="C187" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>666</v>
+      </c>
+      <c r="C188" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>869</v>
+      </c>
+      <c r="C195" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>745</v>
+      </c>
+      <c r="C198" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>612</v>
+      </c>
+      <c r="C201" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>706</v>
+      </c>
+      <c r="C202" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C161" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C162" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C163" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C164" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C165" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C166" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C167" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C168" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C169" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C170" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C171" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C173" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C174" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C175" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C176" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C195" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C196" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C197" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C198" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C199" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C200" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C201" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C202" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C203" t="s">
+    <row r="205" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C204" t="s">
+    <row r="206" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>843</v>
+      </c>
+      <c r="C209" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>836</v>
+      </c>
+      <c r="C210" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>746</v>
+      </c>
+      <c r="C211" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C205" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C206" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C207" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C208" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C209" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C210" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C211" t="s">
+    <row r="213" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C212" t="s">
+    <row r="214" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C213" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C214" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C215" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C216" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C217" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C218" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C219" t="s">
+    <row r="221" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C220" t="s">
+    <row r="222" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>654</v>
+      </c>
+      <c r="C237" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>250</v>
+      </c>
+      <c r="C238" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>702</v>
+      </c>
+      <c r="C239" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>631</v>
+      </c>
+      <c r="C240" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>870</v>
+      </c>
+      <c r="C241" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>640</v>
+      </c>
+      <c r="C242" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>691</v>
+      </c>
+      <c r="C243" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>696</v>
+      </c>
+      <c r="C244" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>697</v>
+      </c>
+      <c r="C245" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>621</v>
+      </c>
+      <c r="C246" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>731</v>
+      </c>
+      <c r="C247" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>747</v>
+      </c>
+      <c r="C248" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>613</v>
+      </c>
+      <c r="C249" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>668</v>
+      </c>
+      <c r="C250" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>672</v>
+      </c>
+      <c r="C251" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>623</v>
+      </c>
+      <c r="C252" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>614</v>
+      </c>
+      <c r="C256" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C221" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C222" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C223" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C224" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C225" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C226" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C227" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C228" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C229" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C230" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C231" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C232" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C233" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C234" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C235" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C236" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C237" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C238" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C239" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C240" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C241" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C242" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C243" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C244" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C245" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C246" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C247" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C248" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C249" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C250" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C251" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C252" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C253" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C254" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C255" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C256" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C257" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C258" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C259" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C260" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C261" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C262" t="s">
+    <row r="264" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C263" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C264" t="s">
+    <row r="265" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C265" t="s">
+    <row r="266" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C266" t="s">
+    <row r="267" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C267" t="s">
+    <row r="268" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C268" t="s">
+    <row r="269" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C269" t="s">
+    <row r="270" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C270" t="s">
+    <row r="271" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>632</v>
+      </c>
+      <c r="C271" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C271" t="s">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>615</v>
+      </c>
+      <c r="C272" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C272" t="s">
+    <row r="273" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C273" t="s">
+    <row r="274" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>837</v>
+      </c>
+      <c r="C274" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C274" t="s">
+    <row r="275" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C275" t="s">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>695</v>
+      </c>
+      <c r="C276" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C276" t="s">
+    <row r="277" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>844</v>
+      </c>
+      <c r="C277" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C277" t="s">
+    <row r="278" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C278" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C278" t="s">
+    <row r="279" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>616</v>
+      </c>
+      <c r="C279" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C279" t="s">
+    <row r="280" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B280" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C280" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C280" t="s">
+    <row r="281" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>813</v>
+      </c>
+      <c r="C281" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C281" t="s">
+    <row r="282" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>841</v>
+      </c>
+      <c r="C282" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C282" t="s">
+    <row r="283" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>732</v>
+      </c>
+      <c r="C283" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C283" t="s">
+    <row r="284" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C284" t="s">
+    <row r="285" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>687</v>
+      </c>
+      <c r="C285" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C285" t="s">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>633</v>
+      </c>
+      <c r="C286" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C286" t="s">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>648</v>
+      </c>
+      <c r="C287" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C287" t="s">
+    <row r="288" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C288" t="s">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>701</v>
+      </c>
+      <c r="C289" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C289" t="s">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>685</v>
+      </c>
+      <c r="C290" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C290" t="s">
+    <row r="291" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>662</v>
+      </c>
+      <c r="C291" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C291" t="s">
+    <row r="292" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C292" t="s">
+    <row r="293" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>641</v>
+      </c>
+      <c r="C293" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C293" t="s">
+    <row r="294" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>871</v>
+      </c>
+      <c r="C294" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C294" t="s">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>838</v>
+      </c>
+      <c r="C295" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C295" t="s">
+    <row r="296" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C296" t="s">
+    <row r="297" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C297" t="s">
+    <row r="298" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>606</v>
+      </c>
+      <c r="C298" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C298" t="s">
+    <row r="299" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>741</v>
+      </c>
+      <c r="C299" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C299" t="s">
+    <row r="300" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C300" t="s">
+    <row r="301" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C301" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C301" t="s">
+    <row r="302" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C302" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C302" t="s">
+    <row r="303" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>689</v>
+      </c>
+      <c r="C303" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C303" t="s">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>707</v>
+      </c>
+      <c r="C304" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C304" t="s">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>712</v>
+      </c>
+      <c r="C305" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C305" t="s">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>721</v>
+      </c>
+      <c r="C306" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C306" t="s">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>806</v>
+      </c>
+      <c r="C307" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C307" t="s">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>704</v>
+      </c>
+      <c r="C308" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C308" t="s">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>724</v>
+      </c>
+      <c r="C309" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C309" t="s">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>713</v>
+      </c>
+      <c r="C310" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C310" t="s">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>807</v>
+      </c>
+      <c r="C311" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C311" t="s">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>709</v>
+      </c>
+      <c r="C312" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C312" t="s">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>725</v>
+      </c>
+      <c r="C313" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C313" t="s">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>714</v>
+      </c>
+      <c r="C314" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C314" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C315" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>715</v>
+      </c>
       <c r="C316" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>726</v>
+      </c>
+      <c r="C317" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C317" t="s">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>808</v>
+      </c>
+      <c r="C318" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C318" t="s">
-        <v>329</v>
-      </c>
-    </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>723</v>
+      </c>
       <c r="C319" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" t="s">
         <v>13</v>
       </c>
-      <c r="C320" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>729</v>
+      </c>
       <c r="C321" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>809</v>
+      </c>
       <c r="C323" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>722</v>
+      </c>
+      <c r="C324" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C324" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C325" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>810</v>
+      </c>
       <c r="C326" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>716</v>
+      </c>
+      <c r="C327" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C327" t="s">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>842</v>
+      </c>
+      <c r="C328" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C328" t="s">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>811</v>
+      </c>
+      <c r="C329" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C329" t="s">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>711</v>
+      </c>
+      <c r="C330" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C330" t="s">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>799</v>
+      </c>
+      <c r="C331" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C331" t="s">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>717</v>
+      </c>
+      <c r="C332" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C332" t="s">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>718</v>
+      </c>
+      <c r="C333" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C333" t="s">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>719</v>
+      </c>
+      <c r="C334" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C334" t="s">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>710</v>
+      </c>
+      <c r="C335" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>840</v>
+      </c>
+      <c r="C336" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C335" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C336" t="s">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>727</v>
+      </c>
+      <c r="C337" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C337" t="s">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>728</v>
+      </c>
+      <c r="C338" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C338" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C339" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C340" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>720</v>
+      </c>
       <c r="C341" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C342" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>730</v>
+      </c>
       <c r="C343" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C344" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C344" t="s">
+    <row r="345" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>814</v>
+      </c>
+      <c r="C345" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>815</v>
+      </c>
+      <c r="C346" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C345" t="s">
+    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>816</v>
+      </c>
+      <c r="C347" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>817</v>
+      </c>
+      <c r="C348" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>818</v>
+      </c>
+      <c r="C349" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>819</v>
+      </c>
+      <c r="C350" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>820</v>
+      </c>
+      <c r="C351" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>634</v>
+      </c>
+      <c r="C352" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C353" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C354" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>617</v>
+      </c>
+      <c r="C355" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C356" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C357" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C358" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C359" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C360" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C361" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C362" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C346" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C347" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C348" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C349" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C350" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C351" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C352" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C353" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C354" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C355" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C356" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C357" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C358" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C359" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C360" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C361" t="s">
+    <row r="363" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C363" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C362" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C363" t="s">
+    <row r="364" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C364" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C364" t="s">
+    <row r="365" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C365" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C365" t="s">
+    <row r="366" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C366" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C366" t="s">
+    <row r="367" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C367" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C367" t="s">
+    <row r="368" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C368" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C368" t="s">
+    <row r="369" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C369" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C369" t="s">
+    <row r="370" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C370" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C370" t="s">
+    <row r="371" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C371" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C371" t="s">
+    <row r="372" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C372" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C372" t="s">
+    <row r="373" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C373" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C373" t="s">
+    <row r="374" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C374" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C374" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
+        <v>23</v>
+      </c>
+      <c r="C375" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C376" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C378" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C379" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C380" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C381" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C382" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>800</v>
+      </c>
+      <c r="C383" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C384" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C385" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C386" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C387" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C388" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C389" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C390" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C391" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C392" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C393" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C394" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C395" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>801</v>
+      </c>
+      <c r="C396" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C397" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C398" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C399" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C400" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C401" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C402" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
+        <v>802</v>
+      </c>
+      <c r="C403" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C404" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>622</v>
+      </c>
+      <c r="C405" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>655</v>
+      </c>
+      <c r="C406" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>803</v>
+      </c>
+      <c r="C407" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
+        <v>624</v>
+      </c>
+      <c r="C408" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
+        <v>635</v>
+      </c>
+      <c r="C409" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C410" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C411" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B412" t="s">
+        <v>821</v>
+      </c>
+      <c r="C412" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>822</v>
+      </c>
+      <c r="C413" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>823</v>
+      </c>
+      <c r="C414" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B415" t="s">
+        <v>824</v>
+      </c>
+      <c r="C415" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
+        <v>825</v>
+      </c>
+      <c r="C416" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
+        <v>826</v>
+      </c>
+      <c r="C417" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B418" t="s">
+        <v>827</v>
+      </c>
+      <c r="C418" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
+        <v>828</v>
+      </c>
+      <c r="C419" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>829</v>
+      </c>
+      <c r="C420" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
+        <v>839</v>
+      </c>
+      <c r="C421" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
+        <v>861</v>
+      </c>
+      <c r="C422" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C423" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C424" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>671</v>
+      </c>
+      <c r="C425" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>683</v>
+      </c>
+      <c r="C426" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>676</v>
+      </c>
+      <c r="C427" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C428" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>656</v>
+      </c>
+      <c r="C429" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
+        <v>669</v>
+      </c>
+      <c r="C430" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B431" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C431" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
+        <v>872</v>
+      </c>
+      <c r="C432" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
+        <v>658</v>
+      </c>
+      <c r="C433" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B434" t="s">
+        <v>679</v>
+      </c>
+      <c r="C434" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>698</v>
+      </c>
+      <c r="C435" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>663</v>
+      </c>
+      <c r="C436" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C437" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
+        <v>848</v>
+      </c>
+      <c r="C438" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B439" t="s">
+        <v>25</v>
+      </c>
+      <c r="C439" t="s">
         <v>24</v>
       </c>
-      <c r="C375" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C376" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C377" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C378" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C379" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C380" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C381" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C382" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C383" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C384" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C385" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C386" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C387" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C388" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C389" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C390" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C391" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C392" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C393" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C394" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C395" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C396" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C397" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C398" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C399" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C400" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C401" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C402" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C403" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C404" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C405" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C406" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C407" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C408" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C409" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C410" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C411" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C412" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C413" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C414" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C415" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C416" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C417" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C418" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C419" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C420" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C421" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C422" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C423" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C424" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C425" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C426" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C427" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C428" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C429" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C430" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C431" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C432" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C433" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C434" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C435" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C436" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C437" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C438" t="s">
+    </row>
+    <row r="440" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C440" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B439" t="s">
-        <v>26</v>
-      </c>
-      <c r="C439" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C440" t="s">
+    <row r="441" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C441" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C441" t="s">
+    <row r="442" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B442" t="s">
+        <v>642</v>
+      </c>
+      <c r="C442" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C442" t="s">
+    <row r="443" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C443" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C443" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C444" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C445" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C446" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C447" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C448" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C449" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C449" t="s">
+    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B450" t="s">
+        <v>873</v>
+      </c>
+      <c r="C450" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C450" t="s">
+    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C451" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C451" t="s">
+    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B452" t="s">
+        <v>874</v>
+      </c>
+      <c r="C452" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C452" t="s">
+    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C453" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C453" t="s">
+    <row r="454" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C454" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C454" t="s">
+    <row r="455" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C455" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C455" t="s">
+    <row r="456" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B456" t="s">
+        <v>636</v>
+      </c>
+      <c r="C456" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C456" t="s">
+    <row r="457" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B457" t="s">
+        <v>649</v>
+      </c>
+      <c r="C457" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C457" t="s">
+    <row r="458" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B458" t="s">
+        <v>650</v>
+      </c>
+      <c r="C458" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C458" t="s">
+    <row r="459" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C459" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C459" t="s">
+    <row r="460" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C460" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C460" t="s">
+    <row r="461" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C461" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C461" t="s">
+    <row r="462" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C462" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C463" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C462" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C463" t="s">
+    <row r="464" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C464" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C464" t="s">
+    <row r="465" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C465" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C465" t="s">
+    <row r="466" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C466" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C466" t="s">
+    <row r="467" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C467" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C467" t="s">
+    <row r="468" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C468" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C468" t="s">
+    <row r="469" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C469" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C469" t="s">
+    <row r="470" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C470" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C470" t="s">
+    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C471" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C471" t="s">
+    <row r="472" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C472" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C472" t="s">
+    <row r="473" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C473" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C473" t="s">
+    <row r="474" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C474" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C474" t="s">
+    <row r="475" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C475" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C475" t="s">
+    <row r="476" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C476" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C476" t="s">
+    <row r="477" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B477" t="s">
+        <v>618</v>
+      </c>
+      <c r="C477" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C477" t="s">
+    <row r="478" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C478" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C478" t="s">
+    <row r="479" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C479" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C479" t="s">
+    <row r="480" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C480" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C480" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C481" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B482" t="s">
+        <v>607</v>
+      </c>
+      <c r="C482" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row r="482" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C482" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C483" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B484" t="s">
+        <v>643</v>
+      </c>
+      <c r="C484" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C484" t="s">
+    <row r="485" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B485" t="s">
+        <v>876</v>
+      </c>
+      <c r="C485" t="s">
         <v>480</v>
-      </c>
-    </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C485" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C486" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B487" t="s">
+        <v>619</v>
+      </c>
+      <c r="C487" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C487" t="s">
+    <row r="488" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B488" t="s">
+        <v>846</v>
+      </c>
+      <c r="C488" t="s">
         <v>483</v>
-      </c>
-    </row>
-    <row r="488" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C488" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C489" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C490" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C491" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C492" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C493" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B494" t="s">
+        <v>804</v>
+      </c>
+      <c r="C494" t="s">
         <v>489</v>
-      </c>
-    </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C494" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B495" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C495" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C496" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C497" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C497" t="s">
+    <row r="498" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C498" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C498" t="s">
+    <row r="499" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B499" t="s">
+        <v>805</v>
+      </c>
+      <c r="C499" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C499" t="s">
+    <row r="500" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B500" t="s">
+        <v>877</v>
+      </c>
+      <c r="C500" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C500" t="s">
+    <row r="501" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C501" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C501" t="s">
+    <row r="502" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B502" t="s">
+        <v>625</v>
+      </c>
+      <c r="C502" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C502" t="s">
+    <row r="503" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C503" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C503" t="s">
+    <row r="504" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C504" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C504" t="s">
+    <row r="505" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C505" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C505" t="s">
+    <row r="506" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C506" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C506" t="s">
+    <row r="507" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C507" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C507" t="s">
+    <row r="508" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C508" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C508" t="s">
+    <row r="509" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C509" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C509" t="s">
+    <row r="510" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C510" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C510" t="s">
+    <row r="511" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B511" t="s">
+        <v>651</v>
+      </c>
+      <c r="C511" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C511" t="s">
+    <row r="512" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B512" t="s">
+        <v>637</v>
+      </c>
+      <c r="C512" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C512" t="s">
-        <v>507</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:C1">
-    <sortState ref="B2:C512">
+  <autoFilter ref="B1:C1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C512">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
@@ -5162,92 +6794,369 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B1:C47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>855</v>
+      </c>
+      <c r="C4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>849</v>
+      </c>
+      <c r="C5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>852</v>
+      </c>
+      <c r="C6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>795</v>
+      </c>
+      <c r="C7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>859</v>
+      </c>
+      <c r="C8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>856</v>
+      </c>
+      <c r="C9" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>850</v>
+      </c>
+      <c r="C10" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>853</v>
+      </c>
+      <c r="C11" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>796</v>
+      </c>
+      <c r="C12" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>860</v>
+      </c>
+      <c r="C13" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>857</v>
+      </c>
+      <c r="C14" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>851</v>
+      </c>
+      <c r="C15" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>854</v>
+      </c>
+      <c r="C16" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>879</v>
+      </c>
+      <c r="C17" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>847</v>
+      </c>
+      <c r="C28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>797</v>
+      </c>
+      <c r="C38" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>798</v>
+      </c>
+      <c r="C39" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>875</v>
+      </c>
+      <c r="C43" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>878</v>
+      </c>
+      <c r="C47" t="s">
+        <v>793</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>545</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D3" t="s">
+        <v>546</v>
+      </c>
+      <c r="G3" t="s">
         <v>548</v>
       </c>
-      <c r="D3" t="s">
-        <v>547</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>549</v>
-      </c>
-      <c r="H3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C3" t="s">
-        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -5256,17 +7165,60 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.5" customWidth="1"/>
-    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="9" style="6"/>
   </cols>
   <sheetData/>

--- a/excels/Core/Trad DMG.xlsx
+++ b/excels/Core/Trad DMG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298E8A5C-185B-45EF-BC09-8266DC1E46BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B1B7E5-914A-4A35-A583-66E260404D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="932">
   <si>
     <t>quickref</t>
   </si>
@@ -2693,6 +2693,141 @@
   </si>
   <si>
     <t>Baraja de ilusiones</t>
+  </si>
+  <si>
+    <t>Botella siemprehumeante</t>
+  </si>
+  <si>
+    <t>Anteojos de encantamiento</t>
+  </si>
+  <si>
+    <t>Anteojos de vista de águila</t>
+  </si>
+  <si>
+    <t>Estatuilla de poder maravilloso</t>
+  </si>
+  <si>
+    <t>Estatuilla de poder maravilloso, Grifo de bronce</t>
+  </si>
+  <si>
+    <t>Estatuilla de poder maravilloso, Mosca de ébano</t>
+  </si>
+  <si>
+    <t>Estatuilla de poder maravilloso, Leones dorados</t>
+  </si>
+  <si>
+    <t>Estatuilla de poder maravilloso, Cabras de marfil</t>
+  </si>
+  <si>
+    <t>Estatuilla de poder maravilloso, Elefante de mármol</t>
+  </si>
+  <si>
+    <t>Estatuilla de poder maravilloso, Corcel de obsidiana</t>
+  </si>
+  <si>
+    <t>Estatuilla de poder maravilloso, Perro de ónice</t>
+  </si>
+  <si>
+    <t>Estatuilla de poder maravilloso, Búho de serpentina</t>
+  </si>
+  <si>
+    <t>Estatuilla de poder maravilloso, Cuervo de plata</t>
+  </si>
+  <si>
+    <t>Gema del resplandor</t>
+  </si>
+  <si>
+    <t>Guantes atrapaflechas</t>
+  </si>
+  <si>
+    <t>Guantes de natación y escalada</t>
+  </si>
+  <si>
+    <t>Guantes de ladrón</t>
+  </si>
+  <si>
+    <t>Diadema de intelecto</t>
+  </si>
+  <si>
+    <t>Yelmo de telepatía</t>
+  </si>
+  <si>
+    <t>Instrumento de los bardos</t>
+  </si>
+  <si>
+    <t>Instrumento de los bardos, Arpa de Anstruth</t>
+  </si>
+  <si>
+    <t>Instrumento de los bardos, Arpa de Ollamh</t>
+  </si>
+  <si>
+    <t>Instrumento de los bardos, Mandolina de Canaith</t>
+  </si>
+  <si>
+    <t>Instrumento de los bardos, Lira de Cli</t>
+  </si>
+  <si>
+    <t>Instrumento de los bardos, Laúd de Doss</t>
+  </si>
+  <si>
+    <t>Instrumento de los bardos, Cistro de Mac-Fuirmidh</t>
+  </si>
+  <si>
+    <t>Instrumento de los bardos, Bandura de Fochlucan</t>
+  </si>
+  <si>
+    <t>Medallón de los pensamientos</t>
+  </si>
+  <si>
+    <t>Collar de adaptación</t>
+  </si>
+  <si>
+    <t>Talismán de cerrar heridas</t>
+  </si>
+  <si>
+    <t>Flauta de la aparición</t>
+  </si>
+  <si>
+    <t>Flauta de las cloacas</t>
+  </si>
+  <si>
+    <t>Anillo de salto</t>
+  </si>
+  <si>
+    <t>Anillo de escudo mental</t>
+  </si>
+  <si>
+    <t>Anillo de calidez</t>
+  </si>
+  <si>
+    <t>Anillo de caminar sobre las aguas</t>
+  </si>
+  <si>
+    <t>Carcaj de Ehlonna</t>
+  </si>
+  <si>
+    <t>Piedra de la buena fortuna</t>
+  </si>
+  <si>
+    <t>Abanico del viento</t>
+  </si>
+  <si>
+    <t>Botas aladas</t>
+  </si>
+  <si>
+    <t>Amuleto de salud</t>
+  </si>
+  <si>
+    <t>Armadura de vulnerabilidad</t>
+  </si>
+  <si>
+    <t>Armadura de vulnerabilidad (Contundente)</t>
+  </si>
+  <si>
+    <t>Armadura de vulnerabilidad (Perforante)</t>
+  </si>
+  <si>
+    <t>Armadura de vulnerabilidad (Cortante)</t>
   </si>
 </sst>
 </file>
@@ -3478,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:D512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,12 +3723,15 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>927</v>
+      </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>862</v>
       </c>
@@ -3635,21 +3773,33 @@
       </c>
     </row>
     <row r="21" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>928</v>
+      </c>
       <c r="C21" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>929</v>
+      </c>
       <c r="C22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>930</v>
+      </c>
       <c r="C23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>931</v>
+      </c>
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -3725,7 +3875,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>883</v>
       </c>
@@ -3891,7 +4041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>863</v>
       </c>
@@ -3946,7 +4096,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>864</v>
       </c>
@@ -4163,7 +4313,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>867</v>
       </c>
@@ -4176,7 +4326,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>868</v>
       </c>
@@ -4409,7 +4559,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>738</v>
       </c>
@@ -4417,7 +4567,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="142" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>812</v>
       </c>
@@ -4425,12 +4575,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="143" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="144" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>690</v>
       </c>
@@ -4438,7 +4588,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B145" s="9" t="s">
         <v>688</v>
       </c>
@@ -4454,7 +4604,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="147" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>646</v>
       </c>
@@ -4462,12 +4612,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="149" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>887</v>
+      </c>
       <c r="C149" t="s">
         <v>166</v>
       </c>
@@ -4480,12 +4633,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B152" s="9" t="s">
         <v>694</v>
       </c>
@@ -4493,7 +4646,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="153" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>888</v>
+      </c>
       <c r="C153" t="s">
         <v>170</v>
       </c>
@@ -4506,57 +4662,90 @@
         <v>171</v>
       </c>
     </row>
-    <row r="155" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>889</v>
+      </c>
       <c r="C155" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="156" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>890</v>
+      </c>
       <c r="C156" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="157" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>891</v>
+      </c>
       <c r="C157" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="158" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>892</v>
+      </c>
       <c r="C158" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="159" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>893</v>
+      </c>
       <c r="C159" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="160" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>894</v>
+      </c>
       <c r="C160" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="161" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>895</v>
+      </c>
       <c r="C161" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="162" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>896</v>
+      </c>
       <c r="C162" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="163" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>897</v>
+      </c>
       <c r="C163" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="164" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>898</v>
+      </c>
       <c r="C164" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="165" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>899</v>
+      </c>
       <c r="C165" t="s">
         <v>181</v>
       </c>
@@ -4577,7 +4766,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="168" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>835</v>
       </c>
@@ -4585,12 +4774,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="170" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>620</v>
       </c>
@@ -4598,7 +4787,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="171" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>639</v>
       </c>
@@ -4606,7 +4795,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="172" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>7</v>
       </c>
@@ -4614,37 +4803,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>900</v>
+      </c>
       <c r="C173" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="174" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="175" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="176" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>901</v>
+      </c>
       <c r="C176" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="177" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>902</v>
+      </c>
       <c r="C177" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="178" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>903</v>
+      </c>
       <c r="C178" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="179" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>744</v>
       </c>
@@ -4660,7 +4861,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="181" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>693</v>
       </c>
@@ -4668,7 +4869,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="182" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>699</v>
       </c>
@@ -4684,12 +4885,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="184" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="185" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>700</v>
       </c>
@@ -4697,7 +4898,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="186" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>665</v>
       </c>
@@ -4721,37 +4922,37 @@
         <v>203</v>
       </c>
     </row>
-    <row r="189" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="190" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="191" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="192" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="195" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>869</v>
       </c>
@@ -4759,17 +4960,20 @@
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>904</v>
+      </c>
       <c r="C196" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="197" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="198" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>745</v>
       </c>
@@ -4777,17 +4981,20 @@
         <v>213</v>
       </c>
     </row>
-    <row r="199" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>905</v>
+      </c>
       <c r="C199" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="200" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="201" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>612</v>
       </c>
@@ -4803,32 +5010,32 @@
         <v>217</v>
       </c>
     </row>
-    <row r="203" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="204" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="205" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="206" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="207" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="208" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
         <v>222</v>
       </c>
@@ -4841,7 +5048,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>836</v>
       </c>
@@ -4849,7 +5056,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>746</v>
       </c>
@@ -4857,132 +5064,156 @@
         <v>225</v>
       </c>
     </row>
-    <row r="212" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>906</v>
+      </c>
       <c r="C212" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="213" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>907</v>
+      </c>
       <c r="C213" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="214" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>909</v>
+      </c>
       <c r="C214" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>910</v>
+      </c>
       <c r="C215" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>911</v>
+      </c>
       <c r="C216" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="217" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>913</v>
+      </c>
       <c r="C217" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="218" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>912</v>
+      </c>
       <c r="C218" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="219" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>908</v>
+      </c>
       <c r="C219" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="220" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="221" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="222" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="223" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="224" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="225" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="226" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="227" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="228" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="229" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="230" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="232" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="233" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="234" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="235" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="236" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="237" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>654</v>
       </c>
@@ -4990,7 +5221,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="238" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>250</v>
       </c>
@@ -4998,7 +5229,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>702</v>
       </c>
@@ -5006,7 +5237,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="240" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>631</v>
       </c>
@@ -5014,7 +5245,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="241" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>870</v>
       </c>
@@ -5022,7 +5253,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="242" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>640</v>
       </c>
@@ -5030,7 +5261,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="243" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>691</v>
       </c>
@@ -5038,7 +5269,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="244" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>696</v>
       </c>
@@ -5046,7 +5277,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="245" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>697</v>
       </c>
@@ -5054,7 +5285,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="246" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>621</v>
       </c>
@@ -5086,7 +5317,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="250" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>668</v>
       </c>
@@ -5094,7 +5325,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="251" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>672</v>
       </c>
@@ -5102,7 +5333,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="252" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>623</v>
       </c>
@@ -5110,22 +5341,22 @@
         <v>264</v>
       </c>
     </row>
-    <row r="253" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="254" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="255" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="256" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>614</v>
       </c>
@@ -5133,77 +5364,80 @@
         <v>268</v>
       </c>
     </row>
-    <row r="257" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="258" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="259" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="260" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="261" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="262" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="263" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="264" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="265" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="266" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="267" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>914</v>
+      </c>
       <c r="C267" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="268" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="269" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="270" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="271" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>632</v>
       </c>
@@ -5219,12 +5453,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="273" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>915</v>
+      </c>
       <c r="C273" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="274" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>837</v>
       </c>
@@ -5232,7 +5469,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="275" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C275" t="s">
         <v>286</v>
       </c>
@@ -5245,7 +5482,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="277" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>844</v>
       </c>
@@ -5253,12 +5490,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="278" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="279" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>616</v>
       </c>
@@ -5266,7 +5503,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="280" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B280" s="9" t="s">
         <v>684</v>
       </c>
@@ -5274,7 +5511,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="281" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>813</v>
       </c>
@@ -5282,7 +5519,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="282" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>841</v>
       </c>
@@ -5290,7 +5527,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="283" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>732</v>
       </c>
@@ -5298,12 +5535,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="284" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C284" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="285" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>687</v>
       </c>
@@ -5327,7 +5564,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="288" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C288" t="s">
         <v>299</v>
       </c>
@@ -5348,7 +5585,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="291" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>662</v>
       </c>
@@ -5356,12 +5593,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="292" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C292" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="293" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>641</v>
       </c>
@@ -5369,7 +5606,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="294" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>871</v>
       </c>
@@ -5385,17 +5622,20 @@
         <v>306</v>
       </c>
     </row>
-    <row r="296" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C296" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="297" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>916</v>
+      </c>
       <c r="C297" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="298" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>606</v>
       </c>
@@ -5403,7 +5643,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="299" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>741</v>
       </c>
@@ -5411,22 +5651,28 @@
         <v>310</v>
       </c>
     </row>
-    <row r="300" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>917</v>
+      </c>
       <c r="C300" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="301" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>918</v>
+      </c>
       <c r="C301" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="302" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C302" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="303" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>689</v>
       </c>
@@ -5754,12 +6000,12 @@
         <v>345</v>
       </c>
     </row>
-    <row r="344" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C344" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="345" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
         <v>814</v>
       </c>
@@ -5767,7 +6013,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="346" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>815</v>
       </c>
@@ -5783,7 +6029,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="348" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>817</v>
       </c>
@@ -5791,7 +6037,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="349" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>818</v>
       </c>
@@ -5815,7 +6061,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="352" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>634</v>
       </c>
@@ -5823,17 +6069,20 @@
         <v>353</v>
       </c>
     </row>
-    <row r="353" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>923</v>
+      </c>
       <c r="C353" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="354" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C354" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="355" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>617</v>
       </c>
@@ -5841,97 +6090,103 @@
         <v>356</v>
       </c>
     </row>
-    <row r="356" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C356" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="357" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C357" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="358" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C358" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="359" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C359" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="360" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C360" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="361" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C361" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="362" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C362" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="363" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C363" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C364" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C365" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="366" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C366" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="367" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C367" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C368" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C369" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>919</v>
+      </c>
       <c r="C370" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C371" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="372" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>920</v>
+      </c>
       <c r="C372" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="373" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C373" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="374" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C374" t="s">
         <v>374</v>
       </c>
@@ -5944,37 +6199,37 @@
         <v>22</v>
       </c>
     </row>
-    <row r="376" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C376" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C377" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C378" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C379" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="380" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C380" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C381" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C382" t="s">
         <v>380</v>
       </c>
@@ -5987,62 +6242,68 @@
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C384" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C385" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C386" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C387" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>921</v>
+      </c>
       <c r="C388" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C389" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>922</v>
+      </c>
       <c r="C390" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C391" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C392" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C393" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C394" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C395" t="s">
         <v>393</v>
       </c>
@@ -6055,37 +6316,37 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C397" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C398" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C399" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C400" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C401" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C402" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>802</v>
       </c>
@@ -6093,12 +6354,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C404" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
         <v>622</v>
       </c>
@@ -6114,7 +6375,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="407" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
         <v>803</v>
       </c>
@@ -6122,7 +6383,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="408" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
         <v>624</v>
       </c>
@@ -6138,12 +6399,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="410" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C410" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C411" t="s">
         <v>409</v>
       </c>
@@ -6220,7 +6481,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="421" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
         <v>839</v>
       </c>
@@ -6228,7 +6489,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="422" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
         <v>861</v>
       </c>
@@ -6236,17 +6497,17 @@
         <v>419</v>
       </c>
     </row>
-    <row r="423" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C423" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="424" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C424" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="425" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
         <v>671</v>
       </c>
@@ -6254,7 +6515,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="426" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
         <v>683</v>
       </c>
@@ -6270,12 +6531,12 @@
         <v>424</v>
       </c>
     </row>
-    <row r="428" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C428" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="429" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
         <v>656</v>
       </c>
@@ -6283,7 +6544,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="430" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
         <v>669</v>
       </c>
@@ -6299,7 +6560,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="432" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
         <v>872</v>
       </c>
@@ -6331,7 +6592,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="436" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
         <v>663</v>
       </c>
@@ -6339,12 +6600,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="437" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C437" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="438" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
         <v>848</v>
       </c>
@@ -6352,7 +6613,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="439" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
         <v>25</v>
       </c>
@@ -6360,17 +6621,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="440" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C440" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="441" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C441" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="442" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
         <v>642</v>
       </c>
@@ -6378,7 +6639,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="443" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C443" t="s">
         <v>439</v>
       </c>
@@ -6479,6 +6740,9 @@
       </c>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B460" t="s">
+        <v>924</v>
+      </c>
       <c r="C460" t="s">
         <v>456</v>
       </c>
@@ -6747,11 +7011,17 @@
       </c>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B507" t="s">
+        <v>925</v>
+      </c>
       <c r="C507" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B508" t="s">
+        <v>926</v>
+      </c>
       <c r="C508" t="s">
         <v>502</v>
       </c>
@@ -6797,7 +7067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -6847,7 +7117,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>852</v>
       </c>
@@ -6887,7 +7157,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>853</v>
       </c>
@@ -6927,7 +7197,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>854</v>
       </c>

--- a/excels/Core/Trad DMG.xlsx
+++ b/excels/Core/Trad DMG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B1B7E5-914A-4A35-A583-66E260404D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4C416D-9B5E-4BF9-B1F5-539134C183CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="magicvariant" sheetId="9" r:id="rId6"/>
     <sheet name="class" sheetId="4" r:id="rId7"/>
     <sheet name="variantrule" sheetId="8" r:id="rId8"/>
-    <sheet name="Temporal" sheetId="2" r:id="rId9"/>
+    <sheet name="vehicle" sheetId="10" r:id="rId9"/>
+    <sheet name="Temporal" sheetId="2" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">baseitem!$B$1:$C$1</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="1130">
   <si>
     <t>quickref</t>
   </si>
@@ -2828,6 +2829,600 @@
   </si>
   <si>
     <t>Armadura de vulnerabilidad (Cortante)</t>
+  </si>
+  <si>
+    <t>Escudo atrapaflechas</t>
+  </si>
+  <si>
+    <t>Cinturón enano</t>
+  </si>
+  <si>
+    <t>Cinturón de fuerza de gigante de las colinas</t>
+  </si>
+  <si>
+    <t>Cinturón de fuerza de gigante</t>
+  </si>
+  <si>
+    <t>Cinturón de fuerza de gigante de las nubes</t>
+  </si>
+  <si>
+    <t>Cinturón de fuerza de gigante de fuego</t>
+  </si>
+  <si>
+    <t>Cinturón de fuerza de gigante de escarcha</t>
+  </si>
+  <si>
+    <t>Cinturón de fuerza de gigante de piedra</t>
+  </si>
+  <si>
+    <t>Cinturón de fuerza de gigante de las tormentas</t>
+  </si>
+  <si>
+    <t>Hacha berserker</t>
+  </si>
+  <si>
+    <t>Botas de levitación</t>
+  </si>
+  <si>
+    <t>Botas de velocidad</t>
+  </si>
+  <si>
+    <t>Cuenco para controlar elementales de agua</t>
+  </si>
+  <si>
+    <t>Brazales de defensa</t>
+  </si>
+  <si>
+    <t>Brasero para controlar elementales de fuego</t>
+  </si>
+  <si>
+    <t>Capa del charlatán</t>
+  </si>
+  <si>
+    <t>Incensario de controlar elementales de aire</t>
+  </si>
+  <si>
+    <t>Armadura de resistencia</t>
+  </si>
+  <si>
+    <t>Armadura de resistencia al ácido</t>
+  </si>
+  <si>
+    <t>Armadura de resistencia al frío</t>
+  </si>
+  <si>
+    <t>Armadura de resistencia al fuego</t>
+  </si>
+  <si>
+    <t>Armadura de resistencia a la fuerza</t>
+  </si>
+  <si>
+    <t>Armadura de resistencia al relámpago</t>
+  </si>
+  <si>
+    <t>Armadura de resistencia al necrótico</t>
+  </si>
+  <si>
+    <t>Armadura de resistencia al veneno</t>
+  </si>
+  <si>
+    <t>Armadura de resistencia al psíquico</t>
+  </si>
+  <si>
+    <t>Armadura de resistencia al radiante</t>
+  </si>
+  <si>
+    <t>Armadura de resistencia al trueno</t>
+  </si>
+  <si>
+    <t>Capa de desplazamiento</t>
+  </si>
+  <si>
+    <t>Capa de murciélago</t>
+  </si>
+  <si>
+    <t>Cubo de fuerza</t>
+  </si>
+  <si>
+    <t>Fortaleza instantánea de Daern</t>
+  </si>
+  <si>
+    <t>Daga de la ponzoña</t>
+  </si>
+  <si>
+    <t>Grilletes dimensionales</t>
+  </si>
+  <si>
+    <t>Matadragones</t>
+  </si>
+  <si>
+    <t>Malla élfica</t>
+  </si>
+  <si>
+    <t>Lengua de fuego</t>
+  </si>
+  <si>
+    <t>Gema de visión</t>
+  </si>
+  <si>
+    <t>Matagigantes</t>
+  </si>
+  <si>
+    <t>Cuero tachonado encantado</t>
+  </si>
+  <si>
+    <t>Yelmo de teletransporte</t>
+  </si>
+  <si>
+    <t>Cuerno de estallido</t>
+  </si>
+  <si>
+    <t>Cuerno del Valhalla</t>
+  </si>
+  <si>
+    <t>Cuerno del Valhalla, Latón</t>
+  </si>
+  <si>
+    <t>Cuerno del Valhalla, Bronce</t>
+  </si>
+  <si>
+    <t>Cuerno del Valhalla, Hierro</t>
+  </si>
+  <si>
+    <t>Cuerno del Valhalla, Plata</t>
+  </si>
+  <si>
+    <t>Piedra Ioun</t>
+  </si>
+  <si>
+    <t>Piedra Ioun, Absorción</t>
+  </si>
+  <si>
+    <t>Piedra Ioun, Agilidad</t>
+  </si>
+  <si>
+    <t>Piedra Ioun, Consciencia</t>
+  </si>
+  <si>
+    <t>Piedra Ioun, Fortaleza</t>
+  </si>
+  <si>
+    <t>Piedra Ioun, Absorción mayor</t>
+  </si>
+  <si>
+    <t>Piedra Ioun, Perspicacia</t>
+  </si>
+  <si>
+    <t>Piedra Ioun, Intelecto</t>
+  </si>
+  <si>
+    <t>Piedra Ioun, Liderazgo</t>
+  </si>
+  <si>
+    <t>Piedra Ioun, Maestría</t>
+  </si>
+  <si>
+    <t>Piedra Ioun, Protección</t>
+  </si>
+  <si>
+    <t>Piedra Ioun, Regeneración</t>
+  </si>
+  <si>
+    <t>Piedra Ioun, Reserva</t>
+  </si>
+  <si>
+    <t>Piedra Ioun, Fuerza</t>
+  </si>
+  <si>
+    <t>Piedra Ioun, Sustento</t>
+  </si>
+  <si>
+    <t>Bandas de hierro de Bilarro</t>
+  </si>
+  <si>
+    <t>Maza disruptiva</t>
+  </si>
+  <si>
+    <t>Maza castigadora</t>
+  </si>
+  <si>
+    <t>Maza del terror</t>
+  </si>
+  <si>
+    <t>Manto de resistencia a conjuros</t>
+  </si>
+  <si>
+    <t>Collar de plegarias</t>
+  </si>
+  <si>
+    <t>Colgante de inmunidad al veneno</t>
+  </si>
+  <si>
+    <t>Anillo de influencia animal</t>
+  </si>
+  <si>
+    <t>Anillo de evasión</t>
+  </si>
+  <si>
+    <t>Anillo de caída de pluma</t>
+  </si>
+  <si>
+    <t>Anillo de libertad de acción</t>
+  </si>
+  <si>
+    <t>Anillo de resistencia</t>
+  </si>
+  <si>
+    <t>Anillo de resistencia al ácido</t>
+  </si>
+  <si>
+    <t>Anillo de resistencia al frío</t>
+  </si>
+  <si>
+    <t>Anillo de resistencia al fuego</t>
+  </si>
+  <si>
+    <t>Anillo de resistencia a la fuerza</t>
+  </si>
+  <si>
+    <t>Anillo de resistencia al relámpago</t>
+  </si>
+  <si>
+    <t>Anillo de resistencia al necrótico</t>
+  </si>
+  <si>
+    <t>Anillo de resistencia al veneno</t>
+  </si>
+  <si>
+    <t>Anillo de resistencia al psíquico</t>
+  </si>
+  <si>
+    <t>Anillo de resistencia al radiante</t>
+  </si>
+  <si>
+    <t>Anillo de resistencia al trueno</t>
+  </si>
+  <si>
+    <t>Anillo de almacenamiento de conjuros</t>
+  </si>
+  <si>
+    <t>Anillo del carnero</t>
+  </si>
+  <si>
+    <t>Anillo de visión de rayos X</t>
+  </si>
+  <si>
+    <t>Túnica de los ojos</t>
+  </si>
+  <si>
+    <t>Cetro de mando</t>
+  </si>
+  <si>
+    <t>Cuerda enredadora</t>
+  </si>
+  <si>
+    <t>Escudo de atraer proyectiles</t>
+  </si>
+  <si>
+    <t>Bastón del cautivador</t>
+  </si>
+  <si>
+    <t>Bastón de curación</t>
+  </si>
+  <si>
+    <t>Bastón de enjambre de insectos</t>
+  </si>
+  <si>
+    <t>Bastón de los bosques</t>
+  </si>
+  <si>
+    <t>Bastón de marchitamiento</t>
+  </si>
+  <si>
+    <t>Piedra de controlar elementales de tierra</t>
+  </si>
+  <si>
+    <t>Espada solar</t>
+  </si>
+  <si>
+    <t>Espada ladrona de vida</t>
+  </si>
+  <si>
+    <t>Espada hiriente</t>
+  </si>
+  <si>
+    <t>Vara de tentáculos</t>
+  </si>
+  <si>
+    <t>Arma feroz</t>
+  </si>
+  <si>
+    <t>Varita de atadura</t>
+  </si>
+  <si>
+    <t>Varita de detectar enemigos</t>
+  </si>
+  <si>
+    <t>Varita del terror</t>
+  </si>
+  <si>
+    <t>Varita de bolas de fuego</t>
+  </si>
+  <si>
+    <t>Varita de las maravillas</t>
+  </si>
+  <si>
+    <t>Alas de vuelo</t>
+  </si>
+  <si>
+    <t>Amuleto de los planos</t>
+  </si>
+  <si>
+    <t>Alfombra voladora</t>
+  </si>
+  <si>
+    <t>Alfombra voladora, 3 x 5 pies</t>
+  </si>
+  <si>
+    <t>Alfombra voladora, 4 x 6 pies</t>
+  </si>
+  <si>
+    <t>Alfombra voladora, 5 x 7 pies</t>
+  </si>
+  <si>
+    <t>Alfombra voladora, 6 x 9 pies</t>
+  </si>
+  <si>
+    <t>Bola de cristal</t>
+  </si>
+  <si>
+    <t>Bola de cristal de leer mentes</t>
+  </si>
+  <si>
+    <t>Bola de cristal de telepatía</t>
+  </si>
+  <si>
+    <t>Bola de cristal de visión veraz</t>
+  </si>
+  <si>
+    <t>Anillo de regeneración</t>
+  </si>
+  <si>
+    <t>Anillo de estrellas fugaces</t>
+  </si>
+  <si>
+    <t>Anillo de telequinesis</t>
+  </si>
+  <si>
+    <t>Túnica de colores hipnóticos</t>
+  </si>
+  <si>
+    <t>Túnica de las estrellas</t>
+  </si>
+  <si>
+    <t>Vara de la absorción</t>
+  </si>
+  <si>
+    <t>Vara de la alerta</t>
+  </si>
+  <si>
+    <t>Vara de la seguridad</t>
+  </si>
+  <si>
+    <t>Cimitarra de velocidad</t>
+  </si>
+  <si>
+    <t>Bastón de fuego</t>
+  </si>
+  <si>
+    <t>Bastón de escarcha</t>
+  </si>
+  <si>
+    <t>Bastón de poder</t>
+  </si>
+  <si>
+    <t>Bastón de impacto</t>
+  </si>
+  <si>
+    <t>Bastón de truenos y relámpagos</t>
+  </si>
+  <si>
+    <t>Espada de hoja afilada</t>
+  </si>
+  <si>
+    <t>Varita de polimorfar</t>
+  </si>
+  <si>
+    <t>Escudo animado</t>
+  </si>
+  <si>
+    <t>Vela de invocación</t>
+  </si>
+  <si>
+    <t>Capa arácnida</t>
+  </si>
+  <si>
+    <t>Espada danzarina</t>
+  </si>
+  <si>
+    <t>Armadura demoníaca</t>
+  </si>
+  <si>
+    <t>Cota de escamas de dragón</t>
+  </si>
+  <si>
+    <t>Cota de escamas de dragón negro</t>
+  </si>
+  <si>
+    <t>Cota de escamas de dragón azul</t>
+  </si>
+  <si>
+    <t>Cota de escamas de dragón de oropel</t>
+  </si>
+  <si>
+    <t>Cota de escamas de dragón de bronce</t>
+  </si>
+  <si>
+    <t>Cota de escamas de dragón de cobre</t>
+  </si>
+  <si>
+    <t>Cota de escamas de dragón de oro</t>
+  </si>
+  <si>
+    <t>Cota de escamas de dragón verde</t>
+  </si>
+  <si>
+    <t>Cota de escamas de dragón rojo</t>
+  </si>
+  <si>
+    <t>Cota de escamas de dragón de plata</t>
+  </si>
+  <si>
+    <t>Cota de escamas de dragón blanco</t>
+  </si>
+  <si>
+    <t>Armadura de placas enana</t>
+  </si>
+  <si>
+    <t>Martillo arrojadizo enano</t>
+  </si>
+  <si>
+    <t>Botella de ifrit</t>
+  </si>
+  <si>
+    <t>Hierro de escarcha</t>
+  </si>
+  <si>
+    <t>Yelmo de fulgor</t>
+  </si>
+  <si>
+    <t>Manual de la salud corporal</t>
+  </si>
+  <si>
+    <t>Manual del ejercicio beneficioso</t>
+  </si>
+  <si>
+    <t>Manual de gólems</t>
+  </si>
+  <si>
+    <t>Manual de gólems de arcilla</t>
+  </si>
+  <si>
+    <t>Manual de gólems de carne</t>
+  </si>
+  <si>
+    <t>Manual de gólems de hierro</t>
+  </si>
+  <si>
+    <t>Manual de gólems de piedra</t>
+  </si>
+  <si>
+    <t>Manual de rapidez de acción</t>
+  </si>
+  <si>
+    <t>Espejo atrapavidas</t>
+  </si>
+  <si>
+    <t>Ladrona de nueve vidas</t>
+  </si>
+  <si>
+    <t>Arco juramentado</t>
+  </si>
+  <si>
+    <t>Escudo de guarda contra conjuros</t>
+  </si>
+  <si>
+    <t>Tomo de pensamiento claro</t>
+  </si>
+  <si>
+    <t>Tomo de liderazgo e influencia</t>
+  </si>
+  <si>
+    <t>Tomo de entendimiento</t>
+  </si>
+  <si>
+    <t>Defensora</t>
+  </si>
+  <si>
+    <t>Martillo de rayos</t>
+  </si>
+  <si>
+    <t>Filo de la fortuna</t>
+  </si>
+  <si>
+    <t>Espada de la respuesta</t>
+  </si>
+  <si>
+    <t>Espada de la respuesta (Replicadora)</t>
+  </si>
+  <si>
+    <t>Espada de la respuesta (Insolente)</t>
+  </si>
+  <si>
+    <t>Espada de la respuesta (Concluyente)</t>
+  </si>
+  <si>
+    <t>Espada de la respuesta (Última palabra)</t>
+  </si>
+  <si>
+    <t>Espada de la respuesta (Refutadora)</t>
+  </si>
+  <si>
+    <t>Espada de la respuesta (Argüidora)</t>
+  </si>
+  <si>
+    <t>Espada de la respuesta (Objetora)</t>
+  </si>
+  <si>
+    <t>Espada de la respuesta (Vituperante)</t>
+  </si>
+  <si>
+    <t>Espada de la respuesta (Represora)</t>
+  </si>
+  <si>
+    <t>Vengadora sagrada</t>
+  </si>
+  <si>
+    <t>Anillo de invocar djinns</t>
+  </si>
+  <si>
+    <t>Anillo de invisibilidad</t>
+  </si>
+  <si>
+    <t>Anillo de retorno de conjuros</t>
+  </si>
+  <si>
+    <t>Cetro de poder señorial</t>
+  </si>
+  <si>
+    <t>Bastón de los magos</t>
+  </si>
+  <si>
+    <t>Espada vorpal</t>
+  </si>
+  <si>
+    <t>Capa de invisibilidad</t>
+  </si>
+  <si>
+    <t>Bola de cristal (versión legendaria)</t>
+  </si>
+  <si>
+    <t>Frasco de hierro</t>
+  </si>
+  <si>
+    <t>Túnica del archimago</t>
+  </si>
+  <si>
+    <t>Vara de la resurrección</t>
+  </si>
+  <si>
+    <t>Escarabajo protector</t>
+  </si>
+  <si>
+    <t>Pozo de los muchos mundos</t>
+  </si>
+  <si>
+    <t>Aparato de Kwalish</t>
   </si>
 </sst>
 </file>
@@ -3319,6 +3914,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C9"/>
@@ -3613,8 +4227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:D512"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,16 +4354,25 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1040</v>
+      </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1066</v>
+      </c>
       <c r="C16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1129</v>
+      </c>
       <c r="C17" t="s">
         <v>43</v>
       </c>
@@ -3768,6 +4391,9 @@
       </c>
     </row>
     <row r="20" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>949</v>
+      </c>
       <c r="C20" t="s">
         <v>507</v>
       </c>
@@ -3805,21 +4431,24 @@
       </c>
     </row>
     <row r="25" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>932</v>
+      </c>
       <c r="C25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>608</v>
       </c>
@@ -3835,7 +4464,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>845</v>
       </c>
@@ -3851,7 +4480,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>880</v>
       </c>
@@ -3859,7 +4488,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>881</v>
       </c>
@@ -3867,7 +4496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>882</v>
       </c>
@@ -3891,7 +4520,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>831</v>
       </c>
@@ -3899,7 +4528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>703</v>
       </c>
@@ -3907,47 +4536,74 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>936</v>
+      </c>
       <c r="C39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>933</v>
+      </c>
       <c r="C40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>937</v>
+      </c>
       <c r="C41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>938</v>
+      </c>
       <c r="C42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>935</v>
+      </c>
       <c r="C43" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>934</v>
+      </c>
       <c r="C44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>939</v>
+      </c>
       <c r="C45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>940</v>
+      </c>
       <c r="C46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1072</v>
+      </c>
       <c r="C47" t="s">
         <v>69</v>
       </c>
@@ -3960,7 +4616,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>604</v>
       </c>
@@ -3968,7 +4624,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>652</v>
       </c>
@@ -3984,7 +4640,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>74</v>
       </c>
@@ -3997,12 +4653,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>1073</v>
+      </c>
       <c r="C54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>610</v>
       </c>
@@ -4010,7 +4669,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>645</v>
       </c>
@@ -4018,7 +4677,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>605</v>
       </c>
@@ -4026,17 +4685,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>82</v>
       </c>
@@ -4049,17 +4708,23 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>942</v>
+      </c>
       <c r="C62" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>943</v>
+      </c>
       <c r="C63" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>591</v>
       </c>
@@ -4067,7 +4732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>884</v>
       </c>
@@ -4083,12 +4748,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>944</v>
+      </c>
       <c r="C67" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>674</v>
       </c>
@@ -4104,12 +4772,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>945</v>
+      </c>
       <c r="C70" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>1074</v>
+      </c>
       <c r="C71" t="s">
         <v>92</v>
       </c>
@@ -4122,12 +4796,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>946</v>
+      </c>
       <c r="C73" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>670</v>
       </c>
@@ -4135,12 +4812,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>1075</v>
+      </c>
       <c r="C75" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>865</v>
       </c>
@@ -4148,7 +4828,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>866</v>
       </c>
@@ -4156,17 +4836,20 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>1067</v>
+      </c>
       <c r="C79" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>742</v>
       </c>
@@ -4174,12 +4857,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>947</v>
+      </c>
       <c r="C81" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>627</v>
       </c>
@@ -4187,37 +4873,52 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>1041</v>
+      </c>
       <c r="C83" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>1042</v>
+      </c>
       <c r="C84" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>1043</v>
+      </c>
       <c r="C85" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>1044</v>
+      </c>
       <c r="C86" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>1045</v>
+      </c>
       <c r="C87" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>657</v>
       </c>
@@ -4233,7 +4934,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>667</v>
       </c>
@@ -4241,12 +4942,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>948</v>
+      </c>
       <c r="C92" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="9" t="s">
         <v>682</v>
       </c>
@@ -4254,7 +4958,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>628</v>
       </c>
@@ -4270,7 +4974,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>638</v>
       </c>
@@ -4278,7 +4982,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>629</v>
       </c>
@@ -4286,7 +4990,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>885</v>
       </c>
@@ -4294,7 +4998,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>630</v>
       </c>
@@ -4303,12 +5007,17 @@
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="10"/>
+      <c r="B100" s="10" t="s">
+        <v>1068</v>
+      </c>
       <c r="C100" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>960</v>
+      </c>
       <c r="C101" t="s">
         <v>121</v>
       </c>
@@ -4321,7 +5030,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>1122</v>
+      </c>
       <c r="C103" t="s">
         <v>123</v>
       </c>
@@ -4334,12 +5046,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>961</v>
+      </c>
       <c r="C105" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>743</v>
       </c>
@@ -4347,7 +5062,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>659</v>
       </c>
@@ -4363,12 +5078,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>1076</v>
+      </c>
       <c r="C109" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>130</v>
       </c>
@@ -4376,52 +5094,76 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>1046</v>
+      </c>
       <c r="C111" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>1123</v>
+      </c>
       <c r="C112" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>1047</v>
+      </c>
       <c r="C113" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>1048</v>
+      </c>
       <c r="C114" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>1049</v>
+      </c>
       <c r="C115" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>962</v>
+      </c>
       <c r="C116" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="118" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>963</v>
+      </c>
       <c r="C118" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>964</v>
+      </c>
       <c r="C119" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>833</v>
       </c>
@@ -4429,7 +5171,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>886</v>
       </c>
@@ -4437,17 +5179,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>1070</v>
+      </c>
       <c r="C123" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="124" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>653</v>
       </c>
@@ -4455,17 +5200,23 @@
         <v>143</v>
       </c>
     </row>
-    <row r="125" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>965</v>
+      </c>
       <c r="C125" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="126" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>1071</v>
+      </c>
       <c r="C126" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>708</v>
       </c>
@@ -4473,7 +5224,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>146</v>
       </c>
@@ -4486,7 +5237,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>734</v>
       </c>
@@ -4494,7 +5245,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>735</v>
       </c>
@@ -4502,32 +5253,41 @@
         <v>149</v>
       </c>
     </row>
-    <row r="132" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>1082</v>
+      </c>
       <c r="C132" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>1083</v>
+      </c>
       <c r="C133" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>1084</v>
+      </c>
       <c r="C135" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="136" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="137" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>736</v>
       </c>
@@ -4535,7 +5295,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>740</v>
       </c>
@@ -4543,7 +5303,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>739</v>
       </c>
@@ -4576,6 +5336,9 @@
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>967</v>
+      </c>
       <c r="C143" t="s">
         <v>160</v>
       </c>
@@ -4812,11 +5575,17 @@
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>969</v>
+      </c>
       <c r="C174" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>971</v>
+      </c>
       <c r="C175" t="s">
         <v>190</v>
       </c>
@@ -4886,6 +5655,9 @@
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>1077</v>
+      </c>
       <c r="C184" t="s">
         <v>199</v>
       </c>
@@ -4923,6 +5695,9 @@
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>1078</v>
+      </c>
       <c r="C189" t="s">
         <v>204</v>
       </c>
@@ -4943,6 +5718,9 @@
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>1103</v>
+      </c>
       <c r="C193" t="s">
         <v>208</v>
       </c>
@@ -4969,6 +5747,9 @@
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>1086</v>
+      </c>
       <c r="C197" t="s">
         <v>212</v>
       </c>
@@ -4990,6 +5771,9 @@
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>972</v>
+      </c>
       <c r="C200" t="s">
         <v>215</v>
       </c>
@@ -5011,31 +5795,49 @@
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>973</v>
+      </c>
       <c r="C203" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>974</v>
+      </c>
       <c r="C204" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>975</v>
+      </c>
       <c r="C205" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>976</v>
+      </c>
       <c r="C206" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>977</v>
+      </c>
       <c r="C207" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>978</v>
+      </c>
       <c r="C208" t="s">
         <v>222</v>
       </c>
@@ -5129,86 +5931,137 @@
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>979</v>
+      </c>
       <c r="C220" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>980</v>
+      </c>
       <c r="C221" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>981</v>
+      </c>
       <c r="C222" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>982</v>
+      </c>
       <c r="C223" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>983</v>
+      </c>
       <c r="C224" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>984</v>
+      </c>
       <c r="C225" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>985</v>
+      </c>
       <c r="C226" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>986</v>
+      </c>
       <c r="C227" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>987</v>
+      </c>
       <c r="C228" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>988</v>
+      </c>
       <c r="C229" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>989</v>
+      </c>
       <c r="C230" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>990</v>
+      </c>
       <c r="C231" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>991</v>
+      </c>
       <c r="C232" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>992</v>
+      </c>
       <c r="C233" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>993</v>
+      </c>
       <c r="C234" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>994</v>
+      </c>
       <c r="C235" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>1124</v>
+      </c>
       <c r="C236" t="s">
         <v>248</v>
       </c>
@@ -5342,16 +6195,25 @@
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>995</v>
+      </c>
       <c r="C253" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>996</v>
+      </c>
       <c r="C254" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>997</v>
+      </c>
       <c r="C255" t="s">
         <v>267</v>
       </c>
@@ -5370,46 +6232,73 @@
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>998</v>
+      </c>
       <c r="C258" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>1087</v>
+      </c>
       <c r="C259" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>1090</v>
+      </c>
       <c r="C260" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>1091</v>
+      </c>
       <c r="C261" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>1088</v>
+      </c>
       <c r="C262" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>1089</v>
+      </c>
       <c r="C263" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>1092</v>
+      </c>
       <c r="C264" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>1094</v>
+      </c>
       <c r="C265" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>1093</v>
+      </c>
       <c r="C266" t="s">
         <v>277</v>
       </c>
@@ -5428,6 +6317,9 @@
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>1095</v>
+      </c>
       <c r="C269" t="s">
         <v>280</v>
       </c>
@@ -5470,6 +6362,9 @@
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>999</v>
+      </c>
       <c r="C275" t="s">
         <v>286</v>
       </c>
@@ -5491,6 +6386,9 @@
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>1097</v>
+      </c>
       <c r="C278" t="s">
         <v>289</v>
       </c>
@@ -5623,6 +6521,9 @@
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>1000</v>
+      </c>
       <c r="C296" t="s">
         <v>307</v>
       </c>
@@ -6078,6 +6979,9 @@
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>1079</v>
+      </c>
       <c r="C354" t="s">
         <v>355</v>
       </c>
@@ -6091,6 +6995,9 @@
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>1006</v>
+      </c>
       <c r="C356" t="s">
         <v>357</v>
       </c>
@@ -6101,16 +7008,25 @@
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>1001</v>
+      </c>
       <c r="C358" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>1007</v>
+      </c>
       <c r="C359" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>1116</v>
+      </c>
       <c r="C360" t="s">
         <v>361</v>
       </c>
@@ -6126,11 +7042,17 @@
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>1002</v>
+      </c>
       <c r="C363" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>1003</v>
+      </c>
       <c r="C364" t="s">
         <v>364</v>
       </c>
@@ -6141,21 +7063,33 @@
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>1008</v>
+      </c>
       <c r="C366" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>1009</v>
+      </c>
       <c r="C367" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>1004</v>
+      </c>
       <c r="C368" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>1117</v>
+      </c>
       <c r="C369" t="s">
         <v>369</v>
       </c>
@@ -6169,6 +7103,9 @@
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>1010</v>
+      </c>
       <c r="C371" t="s">
         <v>371</v>
       </c>
@@ -6182,11 +7119,17 @@
       </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>1011</v>
+      </c>
       <c r="C373" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>1012</v>
+      </c>
       <c r="C374" t="s">
         <v>374</v>
       </c>
@@ -6200,36 +7143,57 @@
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>1013</v>
+      </c>
       <c r="C376" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>1014</v>
+      </c>
       <c r="C377" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>1050</v>
+      </c>
       <c r="C378" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>1005</v>
+      </c>
       <c r="C379" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>1051</v>
+      </c>
       <c r="C380" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>1016</v>
+      </c>
       <c r="C381" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>1118</v>
+      </c>
       <c r="C382" t="s">
         <v>380</v>
       </c>
@@ -6243,11 +7207,17 @@
       </c>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>1052</v>
+      </c>
       <c r="C384" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>1017</v>
+      </c>
       <c r="C385" t="s">
         <v>383</v>
       </c>
@@ -6258,6 +7228,9 @@
       </c>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>1015</v>
+      </c>
       <c r="C387" t="s">
         <v>385</v>
       </c>
@@ -6284,26 +7257,41 @@
       </c>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>1018</v>
+      </c>
       <c r="C391" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>1019</v>
+      </c>
       <c r="C392" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>1053</v>
+      </c>
       <c r="C393" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>1054</v>
+      </c>
       <c r="C394" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>1125</v>
+      </c>
       <c r="C395" t="s">
         <v>393</v>
       </c>
@@ -6317,31 +7305,49 @@
       </c>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>1055</v>
+      </c>
       <c r="C397" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>1056</v>
+      </c>
       <c r="C398" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>1119</v>
+      </c>
       <c r="C399" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>1126</v>
+      </c>
       <c r="C400" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
+        <v>1020</v>
+      </c>
       <c r="C401" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
+        <v>1057</v>
+      </c>
       <c r="C402" t="s">
         <v>400</v>
       </c>
@@ -6355,6 +7361,9 @@
       </c>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
+        <v>1021</v>
+      </c>
       <c r="C404" t="s">
         <v>402</v>
       </c>
@@ -6400,11 +7409,17 @@
       </c>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>1127</v>
+      </c>
       <c r="C410" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>1058</v>
+      </c>
       <c r="C411" t="s">
         <v>409</v>
       </c>
@@ -6503,6 +7518,9 @@
       </c>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>1022</v>
+      </c>
       <c r="C424" t="s">
         <v>421</v>
       </c>
@@ -6532,6 +7550,9 @@
       </c>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>1080</v>
+      </c>
       <c r="C428" t="s">
         <v>425</v>
       </c>
@@ -6622,6 +7643,9 @@
       </c>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B440" t="s">
+        <v>1098</v>
+      </c>
       <c r="C440" t="s">
         <v>436</v>
       </c>
@@ -6640,36 +7664,57 @@
       </c>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B443" t="s">
+        <v>1023</v>
+      </c>
       <c r="C443" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B444" t="s">
+        <v>1059</v>
+      </c>
       <c r="C444" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>1060</v>
+      </c>
       <c r="C445" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B446" t="s">
+        <v>1024</v>
+      </c>
       <c r="C446" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B447" t="s">
+        <v>1061</v>
+      </c>
       <c r="C447" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B448" t="s">
+        <v>1062</v>
+      </c>
       <c r="C448" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B449" t="s">
+        <v>1025</v>
+      </c>
       <c r="C449" t="s">
         <v>445</v>
       </c>
@@ -6683,6 +7728,9 @@
       </c>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B451" t="s">
+        <v>1120</v>
+      </c>
       <c r="C451" t="s">
         <v>447</v>
       </c>
@@ -6696,16 +7744,25 @@
       </c>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B453" t="s">
+        <v>1026</v>
+      </c>
       <c r="C453" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B454" t="s">
+        <v>1063</v>
+      </c>
       <c r="C454" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B455" t="s">
+        <v>1027</v>
+      </c>
       <c r="C455" t="s">
         <v>451</v>
       </c>
@@ -6735,6 +7792,9 @@
       </c>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B459" t="s">
+        <v>1028</v>
+      </c>
       <c r="C459" t="s">
         <v>455</v>
       </c>
@@ -6748,56 +7808,89 @@
       </c>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B461" t="s">
+        <v>1029</v>
+      </c>
       <c r="C461" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B462" t="s">
+        <v>1105</v>
+      </c>
       <c r="C462" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B463" t="s">
+        <v>1106</v>
+      </c>
       <c r="C463" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B464" t="s">
+        <v>1107</v>
+      </c>
       <c r="C464" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B465" t="s">
+        <v>1108</v>
+      </c>
       <c r="C465" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B466" t="s">
+        <v>1109</v>
+      </c>
       <c r="C466" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B467" t="s">
+        <v>1110</v>
+      </c>
       <c r="C467" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B468" t="s">
+        <v>1111</v>
+      </c>
       <c r="C468" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B469" t="s">
+        <v>1112</v>
+      </c>
       <c r="C469" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B470" t="s">
+        <v>1113</v>
+      </c>
       <c r="C470" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B471" t="s">
+        <v>1114</v>
+      </c>
       <c r="C471" t="s">
         <v>466</v>
       </c>
@@ -6823,6 +7916,9 @@
       </c>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B476" t="s">
+        <v>1032</v>
+      </c>
       <c r="C476" t="s">
         <v>471</v>
       </c>
@@ -6836,11 +7932,17 @@
       </c>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B478" t="s">
+        <v>1099</v>
+      </c>
       <c r="C478" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B479" t="s">
+        <v>1100</v>
+      </c>
       <c r="C479" t="s">
         <v>474</v>
       </c>
@@ -6851,6 +7953,9 @@
       </c>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B481" t="s">
+        <v>1101</v>
+      </c>
       <c r="C481" t="s">
         <v>476</v>
       </c>
@@ -6906,21 +8011,33 @@
       </c>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B489" t="s">
+        <v>1034</v>
+      </c>
       <c r="C489" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B490" t="s">
+        <v>1035</v>
+      </c>
       <c r="C490" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B491" t="s">
+        <v>1036</v>
+      </c>
       <c r="C491" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B492" t="s">
+        <v>1037</v>
+      </c>
       <c r="C492" t="s">
         <v>487</v>
       </c>
@@ -6957,6 +8074,9 @@
       </c>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B498" t="s">
+        <v>1065</v>
+      </c>
       <c r="C498" t="s">
         <v>492</v>
       </c>
@@ -6978,6 +8098,9 @@
       </c>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B501" t="s">
+        <v>1038</v>
+      </c>
       <c r="C501" t="s">
         <v>495</v>
       </c>
@@ -6996,6 +8119,9 @@
       </c>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B504" t="s">
+        <v>1128</v>
+      </c>
       <c r="C504" t="s">
         <v>498</v>
       </c>
@@ -7006,6 +8132,9 @@
       </c>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B506" t="s">
+        <v>1081</v>
+      </c>
       <c r="C506" t="s">
         <v>500</v>
       </c>
@@ -7027,6 +8156,9 @@
       </c>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B509" t="s">
+        <v>1039</v>
+      </c>
       <c r="C509" t="s">
         <v>503</v>
       </c>
@@ -7067,13 +8199,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7213,52 +8345,82 @@
         <v>763</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>950</v>
+      </c>
       <c r="C18" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>951</v>
+      </c>
       <c r="C19" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>952</v>
+      </c>
       <c r="C20" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>953</v>
+      </c>
       <c r="C21" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>954</v>
+      </c>
       <c r="C22" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>955</v>
+      </c>
       <c r="C23" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>956</v>
+      </c>
       <c r="C24" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>957</v>
+      </c>
       <c r="C25" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>958</v>
+      </c>
       <c r="C26" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>959</v>
+      </c>
       <c r="C27" t="s">
         <v>773</v>
       </c>
@@ -7272,46 +8434,73 @@
       </c>
     </row>
     <row r="29" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>941</v>
+      </c>
       <c r="C29" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>1069</v>
+      </c>
       <c r="C30" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>1102</v>
+      </c>
       <c r="C31" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>966</v>
+      </c>
       <c r="C32" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>968</v>
+      </c>
       <c r="C33" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>1085</v>
+      </c>
       <c r="C34" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>970</v>
+      </c>
       <c r="C35" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>1115</v>
+      </c>
       <c r="C36" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>1104</v>
+      </c>
       <c r="C37" t="s">
         <v>783</v>
       </c>
@@ -7333,21 +8522,30 @@
       </c>
     </row>
     <row r="40" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1096</v>
+      </c>
       <c r="C40" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>1030</v>
+      </c>
       <c r="C41" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1064</v>
+      </c>
       <c r="C42" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>875</v>
       </c>
@@ -7356,16 +8554,25 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>1031</v>
+      </c>
       <c r="C44" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>1033</v>
+      </c>
       <c r="C45" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>1121</v>
+      </c>
       <c r="C46" t="s">
         <v>792</v>
       </c>
@@ -7439,7 +8646,7 @@
   <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7478,20 +8685,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CB959F-5807-48A5-A9FC-48DBEB4A1D22}">
+  <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excels/Core/Trad DMG.xlsx
+++ b/excels/Core/Trad DMG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4C416D-9B5E-4BF9-B1F5-539134C183CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2442AB5-17CC-4134-BFBD-3D4AEEAB081A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="class" sheetId="4" r:id="rId7"/>
     <sheet name="variantrule" sheetId="8" r:id="rId8"/>
     <sheet name="vehicle" sheetId="10" r:id="rId9"/>
-    <sheet name="Temporal" sheetId="2" r:id="rId10"/>
+    <sheet name="Table" sheetId="11" r:id="rId10"/>
+    <sheet name="Temporal" sheetId="2" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">baseitem!$B$1:$C$1</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="1388">
   <si>
     <t>quickref</t>
   </si>
@@ -3423,6 +3424,780 @@
   </si>
   <si>
     <t>Aparato de Kwalish</t>
+  </si>
+  <si>
+    <t>Armadura de invulnerabilidad</t>
+  </si>
+  <si>
+    <t>Portal cúbico</t>
+  </si>
+  <si>
+    <t>Baraja de múltiples cosas</t>
+  </si>
+  <si>
+    <t>Malla de ifrit</t>
+  </si>
+  <si>
+    <t>Armadura de placas de etereidad</t>
+  </si>
+  <si>
+    <t>Anillo de comandar elementales de aire</t>
+  </si>
+  <si>
+    <t>Anillo de comandar elementales</t>
+  </si>
+  <si>
+    <t>Anillo de comandar elementales de tierra</t>
+  </si>
+  <si>
+    <t>Anillo de comandar elementales de fuego</t>
+  </si>
+  <si>
+    <t>Anillo de comandar elementales de agua</t>
+  </si>
+  <si>
+    <t>Anillo de los tres deseos</t>
+  </si>
+  <si>
+    <t>Esfera de aniquilación</t>
+  </si>
+  <si>
+    <t>Talismán del bien puro</t>
+  </si>
+  <si>
+    <t>Talismán de la esfera</t>
+  </si>
+  <si>
+    <t>Talismán del mal definitivo</t>
+  </si>
+  <si>
+    <t>Tomo de la lengua detenida</t>
+  </si>
+  <si>
+    <t>Sangre de asesino</t>
+  </si>
+  <si>
+    <t>Vapores de othur quemado</t>
+  </si>
+  <si>
+    <t>Moco de carroñero reptante</t>
+  </si>
+  <si>
+    <t>Veneno de drow</t>
+  </si>
+  <si>
+    <t>Esencia de éter</t>
+  </si>
+  <si>
+    <t>Malicia</t>
+  </si>
+  <si>
+    <t>Lágrimas de medianoche</t>
+  </si>
+  <si>
+    <t>Aceite de taggit</t>
+  </si>
+  <si>
+    <t>Tintura pálida</t>
+  </si>
+  <si>
+    <t>Veneno de gusano púrpura</t>
+  </si>
+  <si>
+    <t>Ponzoña de serpiente</t>
+  </si>
+  <si>
+    <t>Letargo</t>
+  </si>
+  <si>
+    <t>Suero de la verdad</t>
+  </si>
+  <si>
+    <t>Veneno de guiverno</t>
+  </si>
+  <si>
+    <t>Hacha de los Señores Enanos</t>
+  </si>
+  <si>
+    <t>A Sample Pantheon; Dawn War Deities</t>
+  </si>
+  <si>
+    <t>Forms of Government</t>
+  </si>
+  <si>
+    <t>Government; Sample Hierarchy of Noble Titles</t>
+  </si>
+  <si>
+    <t>Examples of Faction Ranks</t>
+  </si>
+  <si>
+    <t>World-Shaking Events</t>
+  </si>
+  <si>
+    <t>Rise or Fall of a Leader or an Era; Leader Types</t>
+  </si>
+  <si>
+    <t>Cataclysmic Disasters</t>
+  </si>
+  <si>
+    <t>Assault or Invasion; Invading Forces</t>
+  </si>
+  <si>
+    <t>Extinction or Depletion</t>
+  </si>
+  <si>
+    <t>New Organizations</t>
+  </si>
+  <si>
+    <t>Discovery, Expansion, Invention; Discoveries</t>
+  </si>
+  <si>
+    <t>The Calendar of Harptos</t>
+  </si>
+  <si>
+    <t>Starting at Higher Level; Starting Equipment</t>
+  </si>
+  <si>
+    <t>Wuxia Weapon Names</t>
+  </si>
+  <si>
+    <t>Astral Color Pools</t>
+  </si>
+  <si>
+    <t>Deep Ethereal; Ethereal Curtains</t>
+  </si>
+  <si>
+    <t>Ether Cyclones</t>
+  </si>
+  <si>
+    <t>Feywild Time Warp</t>
+  </si>
+  <si>
+    <t>Shadowfell Despair</t>
+  </si>
+  <si>
+    <t>The Outer Planes</t>
+  </si>
+  <si>
+    <t>Optional Rule: Abyssal Corruption; Abyssal Corruption</t>
+  </si>
+  <si>
+    <t>Gate-Towns of the Outlands</t>
+  </si>
+  <si>
+    <t>Identify the Party's Goals; Dungeon Goals</t>
+  </si>
+  <si>
+    <t>Identify the Party's Goals; Wilderness Goals</t>
+  </si>
+  <si>
+    <t>Identify the Party's Goals; Other Goals</t>
+  </si>
+  <si>
+    <t>Identify Important NPCs; Adventure Villains</t>
+  </si>
+  <si>
+    <t>Identify Important NPCs; Adventure Allies</t>
+  </si>
+  <si>
+    <t>Identify Important NPCs; Adventure Patrons</t>
+  </si>
+  <si>
+    <t>Find the Ideal Introduction; Adventure Introduction</t>
+  </si>
+  <si>
+    <t>Consider the Ideal Climax; Adventure Climax</t>
+  </si>
+  <si>
+    <t>Determine the Villain's Actions; Event-Based Villain Actions</t>
+  </si>
+  <si>
+    <t>Determine the Party's Goals; Event-Based Goals</t>
+  </si>
+  <si>
+    <t>Framing Events</t>
+  </si>
+  <si>
+    <t>Moral Quandaries</t>
+  </si>
+  <si>
+    <t>Twists</t>
+  </si>
+  <si>
+    <t>Side Quests</t>
+  </si>
+  <si>
+    <t>Combat Encounter Difficulty; XP Thresholds by Character Level</t>
+  </si>
+  <si>
+    <t>Modify Total XP for Multiple Monsters; Encounter Multipliers</t>
+  </si>
+  <si>
+    <t>The Adventuring Day; Adventuring Day XP</t>
+  </si>
+  <si>
+    <t>Probabilities; Sylvan Forest Encounters</t>
+  </si>
+  <si>
+    <t>NPC Appearance</t>
+  </si>
+  <si>
+    <t>NPC Abilities</t>
+  </si>
+  <si>
+    <t>NPC Low Abilities</t>
+  </si>
+  <si>
+    <t>NPC Talents</t>
+  </si>
+  <si>
+    <t>NPC Mannerisms</t>
+  </si>
+  <si>
+    <t>Interactions with Others; NPC Interaction Traits</t>
+  </si>
+  <si>
+    <t>NPC Bonds</t>
+  </si>
+  <si>
+    <t>Flaw or Secret; NPC Flaws and Secrets</t>
+  </si>
+  <si>
+    <t>Villains; Villain's Scheme</t>
+  </si>
+  <si>
+    <t>Villains; Villain's Methods</t>
+  </si>
+  <si>
+    <t>Villain's Secret Weakness; Villain's Weakness</t>
+  </si>
+  <si>
+    <t>Dungeon Location</t>
+  </si>
+  <si>
+    <t>Dungeon Location; Exotic Location</t>
+  </si>
+  <si>
+    <t>Dungeon Creator</t>
+  </si>
+  <si>
+    <t>Dungeon Creator; Cults and Religions</t>
+  </si>
+  <si>
+    <t>Dungeon Creator; NPC Alignment</t>
+  </si>
+  <si>
+    <t>Dungeon Creator; NPC Class</t>
+  </si>
+  <si>
+    <t>Dungeon Purpose</t>
+  </si>
+  <si>
+    <t>Dungeon History</t>
+  </si>
+  <si>
+    <t>Monuments</t>
+  </si>
+  <si>
+    <t>Weird Locales</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Weather; Wind</t>
+  </si>
+  <si>
+    <t>Weather; Precipitation</t>
+  </si>
+  <si>
+    <t>Foraging DCs</t>
+  </si>
+  <si>
+    <t>Food and Water Needs</t>
+  </si>
+  <si>
+    <t>Becoming Lost; Wilderness Navigation</t>
+  </si>
+  <si>
+    <t>Random Settlements; Race Relations</t>
+  </si>
+  <si>
+    <t>Random Settlements; Ruler's Status</t>
+  </si>
+  <si>
+    <t>Random Settlements; Notable Traits</t>
+  </si>
+  <si>
+    <t>Random Settlements; Known For Its…</t>
+  </si>
+  <si>
+    <t>Random Settlements; Current Calamity</t>
+  </si>
+  <si>
+    <t>Random Buildings; Building Type</t>
+  </si>
+  <si>
+    <t>Random Buildings; Residence</t>
+  </si>
+  <si>
+    <t>Random Buildings; Religious Building</t>
+  </si>
+  <si>
+    <t>Random Buildings; Tavern</t>
+  </si>
+  <si>
+    <t>Random Buildings; Tavern Name Generator</t>
+  </si>
+  <si>
+    <t>Random Buildings; Warehouse</t>
+  </si>
+  <si>
+    <t>Random Buildings; Shop</t>
+  </si>
+  <si>
+    <t>Random Urban Encounters</t>
+  </si>
+  <si>
+    <t>Random Undersea Encounters</t>
+  </si>
+  <si>
+    <t>Underwater Encounter Distance</t>
+  </si>
+  <si>
+    <t>Random Encounters at Sea</t>
+  </si>
+  <si>
+    <t>Owning a Ship; Airborne and Waterborne Vehicles</t>
+  </si>
+  <si>
+    <t>Trap Effects; Trap Save DCs and Attack Bonuses</t>
+  </si>
+  <si>
+    <t>Trap Effects; Damage Severity by Level</t>
+  </si>
+  <si>
+    <t>Recurring Expenses; Maintenance Costs</t>
+  </si>
+  <si>
+    <t>Individual Treasure: Challenge 0\u20144</t>
+  </si>
+  <si>
+    <t>Individual Treasure: Challenge 5\u201410</t>
+  </si>
+  <si>
+    <t>Individual Treasure: Challenge 11\u201416</t>
+  </si>
+  <si>
+    <t>Individual Treasure: Challenge 17+</t>
+  </si>
+  <si>
+    <t>10 gp Gemstones</t>
+  </si>
+  <si>
+    <t>50 gp Gemstones</t>
+  </si>
+  <si>
+    <t>100 gp Gemstones</t>
+  </si>
+  <si>
+    <t>500 gp Gemstones</t>
+  </si>
+  <si>
+    <t>1,000 gp Gemstones</t>
+  </si>
+  <si>
+    <t>5,000 gp Gemstones</t>
+  </si>
+  <si>
+    <t>25 gp Art Objects</t>
+  </si>
+  <si>
+    <t>250 gp Art Objects</t>
+  </si>
+  <si>
+    <t>750 gp Art Objects</t>
+  </si>
+  <si>
+    <t>2,500 gp Art Objects</t>
+  </si>
+  <si>
+    <t>7,500 gp Art Objects</t>
+  </si>
+  <si>
+    <t>Magic Item Rarity</t>
+  </si>
+  <si>
+    <t>Variant: Mixing Potions; Potion Miscibility</t>
+  </si>
+  <si>
+    <t>Spell Scrolls; Spell Scroll</t>
+  </si>
+  <si>
+    <t>Variant: Scroll Mishaps; Scroll Mishap</t>
+  </si>
+  <si>
+    <t>Special Features; Who Created It or Was Intended to Use It?</t>
+  </si>
+  <si>
+    <t>Special Features; What Is a Detail from Its History?</t>
+  </si>
+  <si>
+    <t>Special Features; What Minor Property Does It Have</t>
+  </si>
+  <si>
+    <t>Special Features; What Quirk Does It Have</t>
+  </si>
+  <si>
+    <t>Magic Item Table A</t>
+  </si>
+  <si>
+    <t>Magic Item Table B</t>
+  </si>
+  <si>
+    <t>Magic Item Table C</t>
+  </si>
+  <si>
+    <t>Magic Item Table D</t>
+  </si>
+  <si>
+    <t>Magic Item Table E</t>
+  </si>
+  <si>
+    <t>Magic Item Table F</t>
+  </si>
+  <si>
+    <t>Magic Item Table G</t>
+  </si>
+  <si>
+    <t>Magic Item Table H</t>
+  </si>
+  <si>
+    <t>Magic Item Table I</t>
+  </si>
+  <si>
+    <t>Sentient Magic Item Communication</t>
+  </si>
+  <si>
+    <t>Sentient Magic Item Senses</t>
+  </si>
+  <si>
+    <t>Sentient Magic Item Alignment</t>
+  </si>
+  <si>
+    <t>Sentient Special Purpose</t>
+  </si>
+  <si>
+    <t>Artifact Properties; Minor Beneficial Properties</t>
+  </si>
+  <si>
+    <t>Artifact Properties; Major Beneficial Properties</t>
+  </si>
+  <si>
+    <t>Artifact Properties; Minor Detrimental Properties</t>
+  </si>
+  <si>
+    <t>Artifact Properties; Major Detrimental Properties</t>
+  </si>
+  <si>
+    <t>Ability Checks</t>
+  </si>
+  <si>
+    <t>Saving Throws</t>
+  </si>
+  <si>
+    <t>Difficulty Class; Typical DCs</t>
+  </si>
+  <si>
+    <t>Using a Map; Map Travel Pace</t>
+  </si>
+  <si>
+    <t>Tracking DCs</t>
+  </si>
+  <si>
+    <t>Object Armor Class</t>
+  </si>
+  <si>
+    <t>Object Hit Points</t>
+  </si>
+  <si>
+    <t>Improvising Damage</t>
+  </si>
+  <si>
+    <t>Improvising Damage; Damage Severity and Level</t>
+  </si>
+  <si>
+    <t>Adjudicating Areas of Effect; Targets in Areas of Effect</t>
+  </si>
+  <si>
+    <t>Handling Mobs; Mob Attacks</t>
+  </si>
+  <si>
+    <t>Creature Size on Squares and Hexes; Creature Size and Space</t>
+  </si>
+  <si>
+    <t>Ending a Chase; Escape Factors</t>
+  </si>
+  <si>
+    <t>Urban Chase Complications</t>
+  </si>
+  <si>
+    <t>Wilderness Chase Complications</t>
+  </si>
+  <si>
+    <t>Poisons</t>
+  </si>
+  <si>
+    <t>Short-Term Madness</t>
+  </si>
+  <si>
+    <t>Long-Term Madness</t>
+  </si>
+  <si>
+    <t>Indefinite Madness</t>
+  </si>
+  <si>
+    <t>Proficiency Dice</t>
+  </si>
+  <si>
+    <t>Ability Check Proficiency by Class</t>
+  </si>
+  <si>
+    <t>Figuring Out Alien Technology</t>
+  </si>
+  <si>
+    <t>Lingering Injuries</t>
+  </si>
+  <si>
+    <t>Massive Damage; System Shock</t>
+  </si>
+  <si>
+    <t>Creating Quick Monster Stats; Monster Statistics by Challenge Rating</t>
+  </si>
+  <si>
+    <t>Final Challenge Rating; Experience Points by Challenge Rating</t>
+  </si>
+  <si>
+    <t>Assign Hit Dice; Hit Dice by Size</t>
+  </si>
+  <si>
+    <t>Damage Vulnerabilities, Resistances, and Immunities; Effective Hit Points Based on Resistances and Immunities</t>
+  </si>
+  <si>
+    <t>Creating a Monster Stat Block; Monster Features</t>
+  </si>
+  <si>
+    <t>Creating NPCs from Scratch; NPC Features</t>
+  </si>
+  <si>
+    <t>Spell Damage</t>
+  </si>
+  <si>
+    <t>Power Level; Magic Item Power by Rarity</t>
+  </si>
+  <si>
+    <t>Variant: Spell Points; Spell Point Cost</t>
+  </si>
+  <si>
+    <t>Variant: Spell Points; Spell Points by Level</t>
+  </si>
+  <si>
+    <t>Starting Area</t>
+  </si>
+  <si>
+    <t>Passages; Passage</t>
+  </si>
+  <si>
+    <t>Passages; Passage Width</t>
+  </si>
+  <si>
+    <t>Doors; Door Type</t>
+  </si>
+  <si>
+    <t>Doors; Beyond a Door</t>
+  </si>
+  <si>
+    <t>Chambers; Chamber</t>
+  </si>
+  <si>
+    <t>Chambers; Chamber Exits</t>
+  </si>
+  <si>
+    <t>Chambers; Exit Location</t>
+  </si>
+  <si>
+    <t>Chambers; Exit Type</t>
+  </si>
+  <si>
+    <t>Stairs</t>
+  </si>
+  <si>
+    <t>Chamber Purpose; Dungeon: Death Trap</t>
+  </si>
+  <si>
+    <t>Chamber Purpose; Dungeon: Lair</t>
+  </si>
+  <si>
+    <t>Chamber Purpose; Dungeon: Maze</t>
+  </si>
+  <si>
+    <t>Chamber Purpose; Dungeon: Mine</t>
+  </si>
+  <si>
+    <t>Chamber Purpose; Dungeon: Planar Gate</t>
+  </si>
+  <si>
+    <t>Chamber Purpose; Dungeon: Stronghold</t>
+  </si>
+  <si>
+    <t>Chamber Purpose; Dungeon: Temple or Shrine</t>
+  </si>
+  <si>
+    <t>Chamber Purpose; Dungeon: Tomb</t>
+  </si>
+  <si>
+    <t>Chamber Purpose; Dungeon: Treasure Vault</t>
+  </si>
+  <si>
+    <t>Chamber Purpose; General Dungeon Chambers</t>
+  </si>
+  <si>
+    <t>Current Chamber State</t>
+  </si>
+  <si>
+    <t>Dungeon Chamber Contents</t>
+  </si>
+  <si>
+    <t>Monsters and Motivations; Monster Motivation</t>
+  </si>
+  <si>
+    <t>Random Dungeon Hazards; Dungeon Hazards</t>
+  </si>
+  <si>
+    <t>Random Obstacles; Obstacles</t>
+  </si>
+  <si>
+    <t>Random Traps; Trap Trigger</t>
+  </si>
+  <si>
+    <t>Random Traps; Trap Damage Severity</t>
+  </si>
+  <si>
+    <t>Random Traps; Trap Effects</t>
+  </si>
+  <si>
+    <t>Random Tricks; Trick Objects</t>
+  </si>
+  <si>
+    <t>Random Tricks; Tricks</t>
+  </si>
+  <si>
+    <t>Dungeon Dressing; Noises</t>
+  </si>
+  <si>
+    <t>Dungeon Dressing; Air</t>
+  </si>
+  <si>
+    <t>Dungeon Dressing; Odor</t>
+  </si>
+  <si>
+    <t>Dungeon Dressing; General Features</t>
+  </si>
+  <si>
+    <t>Dungeon Dressing; General Furnishings and Appointments</t>
+  </si>
+  <si>
+    <t>Dungeon Dressing; Religious Articles and Furnishings</t>
+  </si>
+  <si>
+    <t>Dungeon Dressing; Mage Furnishings</t>
+  </si>
+  <si>
+    <t>Dungeon Dressing; Utensils and Personal Items</t>
+  </si>
+  <si>
+    <t>Dungeon Dressing; Container Contents</t>
+  </si>
+  <si>
+    <t>Dungeon Dressing; Books, Scrolls, and Tomes</t>
+  </si>
+  <si>
+    <t>Propiedades de los artefactos; Propiedades beneficiosas menores</t>
+  </si>
+  <si>
+    <t>Propiedades de los artefactos; Propiedades beneficiosas mayores</t>
+  </si>
+  <si>
+    <t>Propiedades de los artefactos; Propiedades perjudiciales menores</t>
+  </si>
+  <si>
+    <t>Propiedades de los artefactos; Propiedades perjudiciales mayores</t>
+  </si>
+  <si>
+    <t>Libro de las Obras Elevadas</t>
+  </si>
+  <si>
+    <t>Libro de la Oscuridad Vil</t>
+  </si>
+  <si>
+    <t>Ojo de Vecna</t>
+  </si>
+  <si>
+    <t>Mano de Vecna</t>
+  </si>
+  <si>
+    <t>Orbe de los dragones</t>
+  </si>
+  <si>
+    <t>Espada de Kas</t>
+  </si>
+  <si>
+    <t>Varita de Orcus</t>
+  </si>
+  <si>
+    <t>Negrarma</t>
+  </si>
+  <si>
+    <t>Hoja lunar</t>
+  </si>
+  <si>
+    <t>Rasgos especiales; ¿Quién fabricó o para quién se fabricó el objeto?</t>
+  </si>
+  <si>
+    <t>Rasgos especiales; ¿Cual es su historia?</t>
+  </si>
+  <si>
+    <t>Rasgos especiales; ¿Qué propiedad menor posee?</t>
+  </si>
+  <si>
+    <t>Rasgos especiales; ¿Qué peculiaridad tiene?</t>
+  </si>
+  <si>
+    <t>Oleaje</t>
+  </si>
+  <si>
+    <t>Rotundo</t>
+  </si>
+  <si>
+    <t>Bomba</t>
+  </si>
+  <si>
+    <t>Cuerno de polvora</t>
+  </si>
+  <si>
+    <t>Barril de polvora</t>
+  </si>
+  <si>
+    <t>Lanzagranadas</t>
+  </si>
+  <si>
+    <t>Dinamita (barra)</t>
+  </si>
+  <si>
+    <t>Granada de fragmentación</t>
+  </si>
+  <si>
+    <t>Granada de humo</t>
   </si>
 </sst>
 </file>
@@ -3915,6 +4690,1062 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8F65CE-158F-40B2-A4DF-A335099B4687}">
+  <dimension ref="B1:C202"/>
+  <sheetViews>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="94.42578125" customWidth="1"/>
+    <col min="3" max="3" width="100.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="E1"/>
   <sheetViews>
@@ -4227,14 +6058,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:D512"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="C356" sqref="C356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.42578125" customWidth="1"/>
-    <col min="3" max="3" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" customWidth="1"/>
     <col min="4" max="4" width="51.28515625" customWidth="1"/>
     <col min="5" max="5" width="49.28515625" customWidth="1"/>
   </cols>
@@ -4386,6 +6217,9 @@
       </c>
     </row>
     <row r="19" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>1130</v>
+      </c>
       <c r="C19" t="s">
         <v>45</v>
       </c>
@@ -4439,11 +6273,17 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1146</v>
+      </c>
       <c r="C26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1160</v>
+      </c>
       <c r="C27" t="s">
         <v>51</v>
       </c>
@@ -4528,7 +6368,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>703</v>
       </c>
@@ -4641,6 +6481,9 @@
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>1373</v>
+      </c>
       <c r="C52" t="s">
         <v>74</v>
       </c>
@@ -4686,16 +6529,25 @@
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>1381</v>
+      </c>
       <c r="C58" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>1366</v>
+      </c>
       <c r="C59" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>1367</v>
+      </c>
       <c r="C60" t="s">
         <v>82</v>
       </c>
@@ -4740,7 +6592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>681</v>
       </c>
@@ -4837,6 +6689,9 @@
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>1147</v>
+      </c>
       <c r="C78" t="s">
         <v>99</v>
       </c>
@@ -4914,6 +6769,9 @@
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>1148</v>
+      </c>
       <c r="C88" t="s">
         <v>108</v>
       </c>
@@ -4926,7 +6784,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
         <v>678</v>
       </c>
@@ -5143,6 +7001,9 @@
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>1131</v>
+      </c>
       <c r="C117" t="s">
         <v>136</v>
       </c>
@@ -5180,6 +7041,9 @@
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>1132</v>
+      </c>
       <c r="C122" t="s">
         <v>141</v>
       </c>
@@ -5225,6 +7089,9 @@
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>1149</v>
+      </c>
       <c r="C128" t="s">
         <v>146</v>
       </c>
@@ -5270,6 +7137,9 @@
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>1385</v>
+      </c>
       <c r="C134" t="s">
         <v>152</v>
       </c>
@@ -5283,6 +7153,9 @@
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>1133</v>
+      </c>
       <c r="C136" t="s">
         <v>154</v>
       </c>
@@ -5351,7 +7224,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="9" t="s">
         <v>688</v>
       </c>
@@ -5376,6 +7249,9 @@
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>1150</v>
+      </c>
       <c r="C148" t="s">
         <v>165</v>
       </c>
@@ -5397,11 +7273,14 @@
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>1368</v>
+      </c>
       <c r="C151" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="9" t="s">
         <v>694</v>
       </c>
@@ -5538,6 +7417,9 @@
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>1386</v>
+      </c>
       <c r="C169" t="s">
         <v>185</v>
       </c>
@@ -5646,7 +7528,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="183" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="9" t="s">
         <v>680</v>
       </c>
@@ -5703,16 +7585,25 @@
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>1384</v>
+      </c>
       <c r="C190" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>1382</v>
+      </c>
       <c r="C191" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>1383</v>
+      </c>
       <c r="C192" t="s">
         <v>207</v>
       </c>
@@ -5726,6 +7617,9 @@
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>1369</v>
+      </c>
       <c r="C194" t="s">
         <v>209</v>
       </c>
@@ -6227,6 +8121,9 @@
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>1151</v>
+      </c>
       <c r="C257" t="s">
         <v>269</v>
       </c>
@@ -6312,6 +8209,9 @@
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>1152</v>
+      </c>
       <c r="C268" t="s">
         <v>279</v>
       </c>
@@ -6325,6 +8225,9 @@
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>1374</v>
+      </c>
       <c r="C270" t="s">
         <v>281</v>
       </c>
@@ -6401,7 +8304,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="280" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" s="9" t="s">
         <v>684</v>
       </c>
@@ -6434,6 +8337,9 @@
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>1153</v>
+      </c>
       <c r="C284" t="s">
         <v>295</v>
       </c>
@@ -6463,6 +8369,9 @@
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>1370</v>
+      </c>
       <c r="C288" t="s">
         <v>299</v>
       </c>
@@ -6492,6 +8401,9 @@
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>1154</v>
+      </c>
       <c r="C292" t="s">
         <v>303</v>
       </c>
@@ -6569,6 +8481,9 @@
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>1134</v>
+      </c>
       <c r="C302" t="s">
         <v>313</v>
       </c>
@@ -6902,6 +8817,9 @@
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>1155</v>
+      </c>
       <c r="C344" t="s">
         <v>346</v>
       </c>
@@ -7003,6 +8921,9 @@
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>1135</v>
+      </c>
       <c r="C357" t="s">
         <v>358</v>
       </c>
@@ -7032,11 +8953,17 @@
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>1137</v>
+      </c>
       <c r="C361" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>1136</v>
+      </c>
       <c r="C362" t="s">
         <v>523</v>
       </c>
@@ -7058,6 +8985,9 @@
       </c>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>1138</v>
+      </c>
       <c r="C365" t="s">
         <v>365</v>
       </c>
@@ -7223,6 +9153,9 @@
       </c>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>1140</v>
+      </c>
       <c r="C386" t="s">
         <v>384</v>
       </c>
@@ -7244,6 +9177,9 @@
       </c>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>1139</v>
+      </c>
       <c r="C389" t="s">
         <v>387</v>
       </c>
@@ -7513,6 +9449,9 @@
       </c>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>1156</v>
+      </c>
       <c r="C423" t="s">
         <v>420</v>
       </c>
@@ -7573,7 +9512,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="431" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B431" s="9" t="s">
         <v>677</v>
       </c>
@@ -7622,6 +9561,9 @@
       </c>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>1387</v>
+      </c>
       <c r="C437" t="s">
         <v>434</v>
       </c>
@@ -7651,6 +9593,9 @@
       </c>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B441" t="s">
+        <v>1141</v>
+      </c>
       <c r="C441" t="s">
         <v>437</v>
       </c>
@@ -7896,21 +9841,33 @@
       </c>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B472" t="s">
+        <v>1371</v>
+      </c>
       <c r="C472" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B473" t="s">
+        <v>1142</v>
+      </c>
       <c r="C473" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B474" t="s">
+        <v>1143</v>
+      </c>
       <c r="C474" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B475" t="s">
+        <v>1144</v>
+      </c>
       <c r="C475" t="s">
         <v>470</v>
       </c>
@@ -7948,6 +9905,9 @@
       </c>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B480" t="s">
+        <v>1145</v>
+      </c>
       <c r="C480" t="s">
         <v>475</v>
       </c>
@@ -7969,6 +9929,9 @@
       </c>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B483" t="s">
+        <v>1157</v>
+      </c>
       <c r="C483" t="s">
         <v>478</v>
       </c>
@@ -7990,6 +9953,9 @@
       </c>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B486" t="s">
+        <v>1158</v>
+      </c>
       <c r="C486" t="s">
         <v>481</v>
       </c>
@@ -8064,6 +10030,9 @@
       </c>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B496" t="s">
+        <v>1372</v>
+      </c>
       <c r="C496" t="s">
         <v>490</v>
       </c>
@@ -8114,6 +10083,9 @@
       </c>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B503" t="s">
+        <v>1379</v>
+      </c>
       <c r="C503" t="s">
         <v>497</v>
       </c>
@@ -8127,6 +10099,9 @@
       </c>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B505" t="s">
+        <v>1380</v>
+      </c>
       <c r="C505" t="s">
         <v>499</v>
       </c>
@@ -8164,6 +10139,9 @@
       </c>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B510" t="s">
+        <v>1159</v>
+      </c>
       <c r="C510" t="s">
         <v>504</v>
       </c>
@@ -8199,8 +10177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8521,7 +10499,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>1096</v>
       </c>
@@ -8688,8 +10666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CB959F-5807-48A5-A9FC-48DBEB4A1D22}">
   <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excels/Core/Trad DMG.xlsx
+++ b/excels/Core/Trad DMG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2442AB5-17CC-4134-BFBD-3D4AEEAB081A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39DF356-3A17-428A-8640-D025182289BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="1399">
   <si>
     <t>quickref</t>
   </si>
@@ -4198,13 +4198,46 @@
   </si>
   <si>
     <t>Granada de humo</t>
+  </si>
+  <si>
+    <t>Tabla de Objetos Mágicos I</t>
+  </si>
+  <si>
+    <t>Tabla de Objetos Mágicos H</t>
+  </si>
+  <si>
+    <t>Tabla de Objetos Mágicos G</t>
+  </si>
+  <si>
+    <t>Tabla de Objetos Mágicos F</t>
+  </si>
+  <si>
+    <t>Tabla de Objetos Mágicos E</t>
+  </si>
+  <si>
+    <t>Tabla de Objetos Mágicos D</t>
+  </si>
+  <si>
+    <t>Tabla de Objetos Mágicos C</t>
+  </si>
+  <si>
+    <t>Tabla de Objetos Mágicos B</t>
+  </si>
+  <si>
+    <t>Tabla de Objetos Mágicos A</t>
+  </si>
+  <si>
+    <t>Varita de relámpagos</t>
+  </si>
+  <si>
+    <t>Varita de parálisis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4222,14 +4255,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -4257,7 +4282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4282,7 +4307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4694,7 +4718,7 @@
   <dimension ref="B1:C202"/>
   <sheetViews>
     <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5274,46 +5298,73 @@
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>1396</v>
+      </c>
       <c r="C112" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>1395</v>
+      </c>
       <c r="C113" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>1394</v>
+      </c>
       <c r="C114" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>1393</v>
+      </c>
       <c r="C115" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>1392</v>
+      </c>
       <c r="C116" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>1391</v>
+      </c>
       <c r="C117" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>1390</v>
+      </c>
       <c r="C118" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>1389</v>
+      </c>
       <c r="C119" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>1388</v>
+      </c>
       <c r="C120" t="s">
         <v>1279</v>
       </c>
@@ -6058,8 +6109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:D512"/>
   <sheetViews>
-    <sheetView topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="C356" sqref="C356"/>
+    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="D469" sqref="D469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6865,7 +6916,7 @@
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="10" t="s">
+      <c r="B100" t="s">
         <v>1068</v>
       </c>
       <c r="C100" t="s">
@@ -10009,6 +10060,9 @@
       </c>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B493" t="s">
+        <v>1397</v>
+      </c>
       <c r="C493" t="s">
         <v>488</v>
       </c>
@@ -10038,6 +10092,9 @@
       </c>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B497" t="s">
+        <v>1398</v>
+      </c>
       <c r="C497" t="s">
         <v>491</v>
       </c>
@@ -10177,8 +10234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10387,7 +10444,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>958</v>
       </c>
@@ -10395,7 +10452,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>959</v>
       </c>
@@ -10403,7 +10460,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>847</v>
       </c>
@@ -10411,7 +10468,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>941</v>
       </c>
@@ -10419,7 +10476,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1069</v>
       </c>
@@ -10427,7 +10484,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>1102</v>
       </c>
@@ -10435,7 +10492,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>966</v>
       </c>
@@ -10443,7 +10500,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>968</v>
       </c>
@@ -10451,7 +10508,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>1085</v>
       </c>
@@ -10459,7 +10516,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>970</v>
       </c>
@@ -10467,7 +10524,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>1115</v>
       </c>
@@ -10475,7 +10532,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>1104</v>
       </c>
@@ -10483,7 +10540,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>797</v>
       </c>
@@ -10491,7 +10548,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>798</v>
       </c>

--- a/excels/Core/Trad DMG.xlsx
+++ b/excels/Core/Trad DMG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39DF356-3A17-428A-8640-D025182289BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60689F04-E44A-4D13-819C-94BD69F6043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,14 @@
     <sheet name="baseitem" sheetId="5" r:id="rId4"/>
     <sheet name="item" sheetId="3" r:id="rId5"/>
     <sheet name="magicvariant" sheetId="9" r:id="rId6"/>
-    <sheet name="class" sheetId="4" r:id="rId7"/>
-    <sheet name="variantrule" sheetId="8" r:id="rId8"/>
-    <sheet name="vehicle" sheetId="10" r:id="rId9"/>
-    <sheet name="Table" sheetId="11" r:id="rId10"/>
-    <sheet name="Temporal" sheetId="2" r:id="rId11"/>
+    <sheet name="object" sheetId="12" r:id="rId7"/>
+    <sheet name="trap" sheetId="13" r:id="rId8"/>
+    <sheet name="hazard" sheetId="14" r:id="rId9"/>
+    <sheet name="class" sheetId="4" r:id="rId10"/>
+    <sheet name="variantrule" sheetId="8" r:id="rId11"/>
+    <sheet name="vehicle" sheetId="10" r:id="rId12"/>
+    <sheet name="Table" sheetId="11" r:id="rId13"/>
+    <sheet name="Temporal" sheetId="2" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">baseitem!$B$1:$C$1</definedName>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="1445">
   <si>
     <t>quickref</t>
   </si>
@@ -4231,6 +4234,144 @@
   </si>
   <si>
     <t>Varita de parálisis</t>
+  </si>
+  <si>
+    <t>Ballista</t>
+  </si>
+  <si>
+    <t>Cannon</t>
+  </si>
+  <si>
+    <t>Generic Object</t>
+  </si>
+  <si>
+    <t>Mangonel</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Siege Tower</t>
+  </si>
+  <si>
+    <t>Suspended Cauldron</t>
+  </si>
+  <si>
+    <t>Trebuchet</t>
+  </si>
+  <si>
+    <t>Balista</t>
+  </si>
+  <si>
+    <t>Cañón</t>
+  </si>
+  <si>
+    <t>Objeto genérico</t>
+  </si>
+  <si>
+    <t>Mangana</t>
+  </si>
+  <si>
+    <t>Ariete</t>
+  </si>
+  <si>
+    <t>Torre de asedio</t>
+  </si>
+  <si>
+    <t>Caldero suspendido</t>
+  </si>
+  <si>
+    <t>Fundíbulo</t>
+  </si>
+  <si>
+    <t>Collapsing Roof</t>
+  </si>
+  <si>
+    <t>Falling Net</t>
+  </si>
+  <si>
+    <t>Fire-Breathing Statue</t>
+  </si>
+  <si>
+    <t>Pits</t>
+  </si>
+  <si>
+    <t>Poison Darts</t>
+  </si>
+  <si>
+    <t>Poison Needle</t>
+  </si>
+  <si>
+    <t>Rolling Sphere</t>
+  </si>
+  <si>
+    <t>Brown Mold</t>
+  </si>
+  <si>
+    <t>Desecrated Ground</t>
+  </si>
+  <si>
+    <t>Extreme Cold</t>
+  </si>
+  <si>
+    <t>Extreme Heat</t>
+  </si>
+  <si>
+    <t>Frigid Water</t>
+  </si>
+  <si>
+    <t>Green Slime</t>
+  </si>
+  <si>
+    <t>Heavy Precipitation</t>
+  </si>
+  <si>
+    <t>High Altitude</t>
+  </si>
+  <si>
+    <t>Improvised Damage</t>
+  </si>
+  <si>
+    <t>Quicksand</t>
+  </si>
+  <si>
+    <t>Razorvine</t>
+  </si>
+  <si>
+    <t>Slippery Ice</t>
+  </si>
+  <si>
+    <t>Strong Wind</t>
+  </si>
+  <si>
+    <t>Thin Ice</t>
+  </si>
+  <si>
+    <t>Webs</t>
+  </si>
+  <si>
+    <t>Yellow Mold</t>
+  </si>
+  <si>
+    <t>Techo que se hunde</t>
+  </si>
+  <si>
+    <t>Red que cae</t>
+  </si>
+  <si>
+    <t>Estatua que escupe fuego</t>
+  </si>
+  <si>
+    <t>Pozos</t>
+  </si>
+  <si>
+    <t>Dardos envenenados</t>
+  </si>
+  <si>
+    <t>Aguja envenenada</t>
+  </si>
+  <si>
+    <t>Esfera rodante</t>
   </si>
 </sst>
 </file>
@@ -4714,6 +4855,135 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B2:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D3" t="s">
+        <v>546</v>
+      </c>
+      <c r="G3" t="s">
+        <v>548</v>
+      </c>
+      <c r="H3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CB959F-5807-48A5-A9FC-48DBEB4A1D22}">
+  <dimension ref="B1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8F65CE-158F-40B2-A4DF-A335099B4687}">
   <dimension ref="B1:C202"/>
   <sheetViews>
@@ -5796,7 +6066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="E1"/>
   <sheetViews>
@@ -6109,7 +6379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:D512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+    <sheetView topLeftCell="A455" workbookViewId="0">
       <selection activeCell="D469" sqref="D469"/>
     </sheetView>
   </sheetViews>
@@ -10234,8 +10504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10626,102 +10896,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D3" t="s">
-        <v>546</v>
-      </c>
-      <c r="G3" t="s">
-        <v>548</v>
-      </c>
-      <c r="H3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>588</v>
-      </c>
-      <c r="C2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>589</v>
-      </c>
-      <c r="C3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CB959F-5807-48A5-A9FC-48DBEB4A1D22}">
-  <dimension ref="B1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1199B42D-4A58-49D3-9F1B-9EFF89EB2C0F}">
+  <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
@@ -10729,8 +10905,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -10743,10 +10919,264 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1129</v>
+        <v>1407</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AD1088-D059-4627-81EC-5B86F3AEB6FC}">
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E7E5DB-B78B-4945-9AF4-1151E0B629BD}">
+  <dimension ref="B1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>1437</v>
       </c>
     </row>
   </sheetData>

--- a/excels/Core/Trad DMG.xlsx
+++ b/excels/Core/Trad DMG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60689F04-E44A-4D13-819C-94BD69F6043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7141608-F559-4D6A-A367-8050D769E79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" tabRatio="854" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="1445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="1461">
   <si>
     <t>quickref</t>
   </si>
@@ -4372,6 +4372,54 @@
   </si>
   <si>
     <t>Esfera rodante</t>
+  </si>
+  <si>
+    <t>Moho marrón</t>
+  </si>
+  <si>
+    <t>Tierra profanada</t>
+  </si>
+  <si>
+    <t>Frío extremo</t>
+  </si>
+  <si>
+    <t>Calor extremo</t>
+  </si>
+  <si>
+    <t>Agua helada</t>
+  </si>
+  <si>
+    <t>Precipitaciones intensas</t>
+  </si>
+  <si>
+    <t>Altitud elevada</t>
+  </si>
+  <si>
+    <t>Limo verde</t>
+  </si>
+  <si>
+    <t>Telarañas</t>
+  </si>
+  <si>
+    <t>Moho amarillo</t>
+  </si>
+  <si>
+    <t>Improvisar daño</t>
+  </si>
+  <si>
+    <t>Arenas movedizas</t>
+  </si>
+  <si>
+    <t>Enredadera afilada</t>
+  </si>
+  <si>
+    <t>Hielo resbaladizo</t>
+  </si>
+  <si>
+    <t>Viento fuerte</t>
+  </si>
+  <si>
+    <t>Hielo delgado</t>
   </si>
 </sst>
 </file>
@@ -10990,7 +11038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AD1088-D059-4627-81EC-5B86F3AEB6FC}">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -11081,8 +11129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E7E5DB-B78B-4945-9AF4-1151E0B629BD}">
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11100,81 +11148,129 @@
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1445</v>
+      </c>
       <c r="C2" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1446</v>
+      </c>
       <c r="C3" t="s">
         <v>1423</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1447</v>
+      </c>
       <c r="C4" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1448</v>
+      </c>
       <c r="C5" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1449</v>
+      </c>
       <c r="C6" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1452</v>
+      </c>
       <c r="C7" t="s">
         <v>1427</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1450</v>
+      </c>
       <c r="C8" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1451</v>
+      </c>
       <c r="C9" t="s">
         <v>1429</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1455</v>
+      </c>
       <c r="C10" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1456</v>
+      </c>
       <c r="C11" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1457</v>
+      </c>
       <c r="C12" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1458</v>
+      </c>
       <c r="C13" t="s">
         <v>1433</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1459</v>
+      </c>
       <c r="C14" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1460</v>
+      </c>
       <c r="C15" t="s">
         <v>1435</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1453</v>
+      </c>
       <c r="C16" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1454</v>
+      </c>
       <c r="C17" t="s">
         <v>1437</v>
       </c>
